--- a/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-24T15:56:43+00:00</t>
+    <t>2022-11-25T11:36:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:36:47+00:00</t>
+    <t>2022-11-25T11:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:53:22+00:00</t>
+    <t>2022-11-25T11:57:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:57:58+00:00</t>
+    <t>2022-11-26T17:48:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-26T17:48:47+00:00</t>
+    <t>2022-11-28T10:19:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T10:19:29+00:00</t>
+    <t>2022-11-28T11:36:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T11:36:40+00:00</t>
+    <t>2022-11-28T11:42:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T11:42:39+00:00</t>
+    <t>2022-11-28T13:17:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:17:59+00:00</t>
+    <t>2022-11-28T13:54:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:54:36+00:00</t>
+    <t>2022-11-28T14:10:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T14:10:20+00:00</t>
+    <t>2022-11-29T11:19:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/SubstanceDefinition-uv-epi</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/SubstanceDefinition-uv-epi</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:19:39+00:00</t>
+    <t>2022-12-01T10:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -592,7 +592,7 @@
     <t>SubstanceDefinition.manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/Organization-uv-epi)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/Organization-uv-epi)
 </t>
   </si>
   <si>
@@ -1250,7 +1250,7 @@
     <t>The specific code.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/substance</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/substance</t>
   </si>
   <si>
     <t>Substance_Code.Code, Substance_Code.Code_System, Substance_Code.Code_System_Id</t>
@@ -2110,7 +2110,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="142.90625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.21875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="60.96875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-Ballot</t>
+    <t>1.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:11:45+00:00</t>
+    <t>2022-12-02T14:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T14:16:24+00:00</t>
+    <t>2022-12-09T15:04:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-14T14:15:20+00:00</t>
+    <t>2022-12-14T18:14:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-14T18:14:38+00:00</t>
+    <t>2022-12-16T11:20:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T11:20:12+00:00</t>
+    <t>2022-12-16T11:59:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4371" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4645" uniqueCount="596">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T11:59:44+00:00</t>
+    <t>2022-12-17T10:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Kind</t>
@@ -442,7 +442,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/5.0.0-ballot/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/5.0.0-snapshot3/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -787,13 +787,74 @@
     <t>Amount.Amount_Type</t>
   </si>
   <si>
+    <t>SubstanceDefinition.characterization</t>
+  </si>
+  <si>
+    <t>General specifications for this substance</t>
+  </si>
+  <si>
+    <t>General specifications for this substance.</t>
+  </si>
+  <si>
+    <t>SubstanceDefinition.characterization.id</t>
+  </si>
+  <si>
+    <t>SubstanceDefinition.characterization.extension</t>
+  </si>
+  <si>
+    <t>SubstanceDefinition.characterization.modifierExtension</t>
+  </si>
+  <si>
+    <t>SubstanceDefinition.characterization.technique</t>
+  </si>
+  <si>
+    <t>The method used to find the characterization e.g. HPLC</t>
+  </si>
+  <si>
+    <t>The method used to elucidate the characterization of the drug substance. Example: HPLC.</t>
+  </si>
+  <si>
+    <t>The method used to elucidate the characterization of the drug substance.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/substance-structure-technique</t>
+  </si>
+  <si>
+    <t>SubstanceDefinition.characterization.form</t>
+  </si>
+  <si>
+    <t>The specific chemical entity of the substance being characterized, to distinguish for example salt or base</t>
+  </si>
+  <si>
+    <t>The specific chemical entity of the substance being characterized, to distinguish for example salt or base.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/substance-form</t>
+  </si>
+  <si>
+    <t>SubstanceDefinition.characterization.description</t>
+  </si>
+  <si>
+    <t>Narrative text, data, tables about the characterization</t>
+  </si>
+  <si>
+    <t>Narrative text, data, tables about the characterization.</t>
+  </si>
+  <si>
+    <t>SubstanceDefinition.characterization.file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attachment
+</t>
+  </si>
+  <si>
+    <t>An image or data file that characterizes this substance</t>
+  </si>
+  <si>
+    <t>An image or data file that characterizes this substance.</t>
+  </si>
+  <si>
     <t>SubstanceDefinition.property</t>
-  </si>
-  <si>
-    <t>General specifications for this substance</t>
-  </si>
-  <si>
-    <t>General specifications for this substance.</t>
   </si>
   <si>
     <t>Substance.Property</t>
@@ -861,10 +922,10 @@
     <t>SubstanceDefinition.molecularWeight</t>
   </si>
   <si>
-    <t>The molecular weight or weight range</t>
-  </si>
-  <si>
-    <t>The molecular weight or weight range (for proteins, polymers or nucleic acids).</t>
+    <t>The average mass of a molecule of a compound</t>
+  </si>
+  <si>
+    <t>The average mass of a molecule of a compound compared to 1/12 the mass of carbon 12 and calculated as the sum of the atomic weights of the constituent atoms.</t>
   </si>
   <si>
     <t>SubstanceDefinition.molecularWeight.id</t>
@@ -987,7 +1048,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Quantity.comparator</t>
@@ -1096,7 +1157,7 @@
     <t>Molecular formula (e.g. using the Hill system).</t>
   </si>
   <si>
-    <t>Molecular formula of this substance, typically using the Hill system.</t>
+    <t>An expression which states the number and type of atoms present in a molecule of a substance.</t>
   </si>
   <si>
     <t>Structure.Molecular_Formula</t>
@@ -1117,6 +1178,12 @@
     <t>SubstanceDefinition.structure.molecularWeight</t>
   </si>
   <si>
+    <t>The molecular weight or weight range</t>
+  </si>
+  <si>
+    <t>The molecular weight or weight range (for proteins, polymers or nucleic acids).</t>
+  </si>
+  <si>
     <t>Structure.Molecular_Weight</t>
   </si>
   <si>
@@ -1126,13 +1193,10 @@
     <t>The method used to find the structure e.g. X-ray, NMR</t>
   </si>
   <si>
-    <t>The method used to elucidate the structure or characterization of the drug substance. Examples: X-ray, HPLC, NMR, Peptide mapping, Ligand binding assay.</t>
-  </si>
-  <si>
-    <t>The method used to elucidate the structure or characterization of the drug substance.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-structure-technique</t>
+    <t>The method used to elucidate the structure of the drug substance. Examples: X-ray, NMR, Peptide mapping, Ligand binding assay.</t>
+  </si>
+  <si>
+    <t>The method used to elucidate the structure of the drug substance.</t>
   </si>
   <si>
     <t>SubstanceDefinition.structure.sourceDocument</t>
@@ -1154,10 +1218,10 @@
     <t>SubstanceDefinition.structure.representation</t>
   </si>
   <si>
-    <t>A depiction of the structure or characterization of the substance</t>
-  </si>
-  <si>
-    <t>A depiction of the structure or characterization of the substance.</t>
+    <t>A depiction of the structure of the substance</t>
+  </si>
+  <si>
+    <t>A depiction of the structure of the substance.</t>
   </si>
   <si>
     <t>Structure.Structural_Representation</t>
@@ -1193,10 +1257,10 @@
     <t>SubstanceDefinition.structure.representation.representation</t>
   </si>
   <si>
-    <t>The structural representation or characterization as a text string in a standard format</t>
-  </si>
-  <si>
-    <t>The structural representation or characterization as a text string in a standard format.</t>
+    <t>The structural representation as a text string in a standard format</t>
+  </si>
+  <si>
+    <t>The structural representation as a text string in a standard format.</t>
   </si>
   <si>
     <t>Structural_Representation.Structural_Representation</t>
@@ -1220,7 +1284,7 @@
     <t>An attachment with the structural representation e.g. a structure graphic or AnIML file</t>
   </si>
   <si>
-    <t>An attached file with the structural representation or characterization e.g. a molecular structure graphic of the substance, a JCAMP or AnIML file.</t>
+    <t>An attached file with the structural representation e.g. a molecular structure graphic of the substance, a JCAMP or AnIML file.</t>
   </si>
   <si>
     <t>Structural_Representation.Structural_Representation_Attachment</t>
@@ -1774,7 +1838,7 @@
     <t>The country or countries where the material is harvested.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/country|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/country|5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Source_Material.Country_Of_Origin</t>
@@ -2080,7 +2144,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM126"/>
+  <dimension ref="A1:AM134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5856,7 +5920,7 @@
         <v>95</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>252</v>
+        <v>156</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>74</v>
@@ -5867,10 +5931,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5976,10 +6040,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6087,10 +6151,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6200,10 +6264,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6211,7 +6275,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>83</v>
@@ -6229,10 +6293,10 @@
         <v>151</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6262,11 +6326,11 @@
         <v>169</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Z38" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AA38" t="s" s="2">
         <v>74</v>
       </c>
@@ -6283,10 +6347,10 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>83</v>
@@ -6298,7 +6362,7 @@
         <v>95</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>261</v>
+        <v>156</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>74</v>
@@ -6309,10 +6373,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6335,13 +6399,13 @@
         <v>84</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>263</v>
+        <v>151</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6368,13 +6432,11 @@
         <v>74</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>74</v>
+        <v>263</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>74</v>
@@ -6392,7 +6454,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6407,7 +6469,7 @@
         <v>95</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>266</v>
+        <v>156</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
@@ -6418,10 +6480,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6444,13 +6506,13 @@
         <v>84</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>268</v>
+        <v>174</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6501,7 +6563,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6516,7 +6578,7 @@
         <v>95</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>271</v>
+        <v>156</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
@@ -6527,10 +6589,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6553,13 +6615,13 @@
         <v>84</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>195</v>
+        <v>268</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6610,7 +6672,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6625,7 +6687,7 @@
         <v>95</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -6636,10 +6698,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6650,7 +6712,7 @@
         <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>74</v>
@@ -6659,16 +6721,16 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>146</v>
+        <v>195</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6719,47 +6781,47 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>202</v>
+        <v>271</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>74</v>
+        <v>272</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>74</v>
@@ -6771,17 +6833,15 @@
         <v>74</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>74</v>
@@ -6830,19 +6890,19 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>74</v>
@@ -6856,14 +6916,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>207</v>
+        <v>128</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6876,26 +6936,24 @@
         <v>74</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>129</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>208</v>
+        <v>130</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="O44" t="s" s="2">
-        <v>138</v>
-      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>74</v>
       </c>
@@ -6943,7 +7001,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6964,47 +7022,51 @@
         <v>74</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>126</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>279</v>
+        <v>208</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>74</v>
       </c>
@@ -7028,13 +7090,13 @@
         <v>74</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>281</v>
+        <v>74</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>282</v>
+        <v>74</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>74</v>
@@ -7052,36 +7114,36 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>278</v>
+        <v>210</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>283</v>
+        <v>74</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7089,7 +7151,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>83</v>
@@ -7107,10 +7169,10 @@
         <v>151</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7140,10 +7202,10 @@
         <v>169</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>74</v>
@@ -7161,10 +7223,10 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>83</v>
@@ -7176,7 +7238,7 @@
         <v>95</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>
@@ -7187,10 +7249,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7198,7 +7260,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>83</v>
@@ -7213,13 +7275,13 @@
         <v>84</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7270,10 +7332,10 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>83</v>
@@ -7285,7 +7347,7 @@
         <v>95</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>74</v>
@@ -7296,10 +7358,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7319,16 +7381,16 @@
         <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>85</v>
+        <v>288</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>200</v>
+        <v>289</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>201</v>
+        <v>290</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7379,7 +7441,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>202</v>
+        <v>287</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7391,28 +7453,28 @@
         <v>74</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>74</v>
+        <v>291</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7428,20 +7490,18 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>129</v>
+        <v>195</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>130</v>
+        <v>293</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>74</v>
@@ -7478,19 +7538,19 @@
         <v>74</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>297</v>
+        <v>74</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>298</v>
+        <v>74</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>299</v>
+        <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>205</v>
+        <v>292</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7502,7 +7562,7 @@
         <v>74</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>74</v>
@@ -7511,15 +7571,15 @@
         <v>74</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7539,23 +7599,19 @@
         <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>301</v>
+        <v>146</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>302</v>
+        <v>200</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>74</v>
       </c>
@@ -7603,7 +7659,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>306</v>
+        <v>202</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7615,7 +7671,7 @@
         <v>74</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>74</v>
@@ -7624,55 +7680,53 @@
         <v>74</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>307</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>309</v>
+        <v>130</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q51" t="s" s="2">
-        <v>312</v>
-      </c>
+      <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
         <v>74</v>
       </c>
@@ -7692,11 +7746,13 @@
         <v>74</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="Y51" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z51" t="s" s="2">
-        <v>314</v>
+        <v>74</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>74</v>
@@ -7714,19 +7770,19 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>315</v>
+        <v>205</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>74</v>
@@ -7735,48 +7791,50 @@
         <v>74</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>316</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>318</v>
+        <v>208</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O52" t="s" s="2">
-        <v>320</v>
+        <v>138</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>74</v>
@@ -7825,19 +7883,19 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>321</v>
+        <v>210</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>74</v>
@@ -7846,15 +7904,15 @@
         <v>74</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>322</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7877,18 +7935,16 @@
         <v>84</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>326</v>
-      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>74</v>
       </c>
@@ -7912,13 +7968,13 @@
         <v>74</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>74</v>
+        <v>301</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>74</v>
+        <v>302</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>74</v>
@@ -7936,7 +7992,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7945,27 +8001,27 @@
         <v>83</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>328</v>
+        <v>74</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>74</v>
+        <v>303</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>329</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7988,20 +8044,16 @@
         <v>84</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>74</v>
       </c>
@@ -8025,13 +8077,13 @@
         <v>74</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>74</v>
+        <v>307</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>74</v>
+        <v>308</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>74</v>
@@ -8049,7 +8101,7 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -8064,21 +8116,21 @@
         <v>95</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>74</v>
+        <v>309</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>336</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8086,7 +8138,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>83</v>
@@ -8101,13 +8153,13 @@
         <v>84</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>195</v>
+        <v>311</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8158,10 +8210,10 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>83</v>
@@ -8173,7 +8225,7 @@
         <v>95</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>74</v>
@@ -8184,10 +8236,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8210,7 +8262,7 @@
         <v>74</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>200</v>
@@ -8293,10 +8345,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8366,16 +8418,16 @@
         <v>74</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>74</v>
+        <v>317</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>74</v>
+        <v>318</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>74</v>
+        <v>319</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>205</v>
@@ -8404,45 +8456,45 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>207</v>
+        <v>74</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>129</v>
+        <v>321</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>208</v>
+        <v>322</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>209</v>
+        <v>323</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>132</v>
+        <v>324</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>138</v>
+        <v>325</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>74</v>
@@ -8491,19 +8543,19 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>74</v>
@@ -8512,15 +8564,15 @@
         <v>74</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>126</v>
+        <v>327</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8537,26 +8589,30 @@
         <v>74</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>224</v>
+        <v>329</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>225</v>
+        <v>330</v>
       </c>
       <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="R59" t="s" s="2">
         <v>74</v>
       </c>
@@ -8576,13 +8632,11 @@
         <v>74</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="Y59" s="2"/>
       <c r="Z59" t="s" s="2">
-        <v>227</v>
+        <v>334</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>74</v>
@@ -8600,7 +8654,7 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8615,21 +8669,21 @@
         <v>95</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>345</v>
+        <v>74</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>74</v>
+        <v>336</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8652,16 +8706,18 @@
         <v>84</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>230</v>
+        <v>338</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>231</v>
+        <v>339</v>
       </c>
       <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>74</v>
       </c>
@@ -8685,13 +8741,13 @@
         <v>74</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>226</v>
+        <v>74</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>232</v>
+        <v>74</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>74</v>
@@ -8709,7 +8765,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8724,21 +8780,21 @@
         <v>95</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>347</v>
+        <v>74</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>74</v>
+        <v>342</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8761,16 +8817,18 @@
         <v>84</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>74</v>
       </c>
@@ -8818,7 +8876,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -8827,27 +8885,27 @@
         <v>83</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>74</v>
+        <v>348</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>351</v>
+        <v>74</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>74</v>
+        <v>349</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8870,16 +8928,20 @@
         <v>84</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N62" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>74</v>
       </c>
@@ -8927,7 +8989,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -8942,21 +9004,21 @@
         <v>95</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>355</v>
+        <v>74</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>74</v>
+        <v>356</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8979,13 +9041,13 @@
         <v>84</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>273</v>
+        <v>358</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9036,7 +9098,7 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -9051,7 +9113,7 @@
         <v>95</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>74</v>
@@ -9062,10 +9124,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9076,7 +9138,7 @@
         <v>75</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>74</v>
@@ -9085,16 +9147,16 @@
         <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>359</v>
+        <v>200</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>360</v>
+        <v>201</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9121,13 +9183,13 @@
         <v>74</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>361</v>
+        <v>74</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>362</v>
+        <v>74</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>74</v>
@@ -9145,40 +9207,40 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>358</v>
+        <v>202</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>74</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9194,18 +9256,20 @@
         <v>74</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>364</v>
+        <v>129</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>365</v>
+        <v>130</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>74</v>
@@ -9254,7 +9318,7 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>363</v>
+        <v>205</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -9266,28 +9330,28 @@
         <v>74</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>367</v>
+        <v>74</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>74</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9300,22 +9364,26 @@
         <v>74</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>369</v>
+        <v>208</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>74</v>
       </c>
@@ -9363,7 +9431,7 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>368</v>
+        <v>210</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -9375,24 +9443,24 @@
         <v>74</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>371</v>
+        <v>74</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9412,16 +9480,16 @@
         <v>74</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9448,13 +9516,13 @@
         <v>74</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>74</v>
+        <v>226</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>74</v>
+        <v>227</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>74</v>
@@ -9472,7 +9540,7 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>202</v>
+        <v>364</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -9484,35 +9552,35 @@
         <v>74</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>74</v>
+        <v>365</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>74</v>
@@ -9521,20 +9589,18 @@
         <v>74</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>74</v>
@@ -9559,13 +9625,13 @@
         <v>74</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>74</v>
+        <v>226</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>74</v>
+        <v>232</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>74</v>
@@ -9583,72 +9649,68 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>205</v>
+        <v>366</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>74</v>
+        <v>367</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>207</v>
+        <v>74</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J69" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>208</v>
+        <v>369</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>74</v>
       </c>
@@ -9696,36 +9758,36 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>210</v>
+        <v>368</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>74</v>
+        <v>371</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9748,13 +9810,13 @@
         <v>84</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9781,13 +9843,13 @@
         <v>74</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>378</v>
+        <v>74</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>379</v>
+        <v>74</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>74</v>
@@ -9805,7 +9867,7 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -9820,7 +9882,7 @@
         <v>95</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>74</v>
@@ -9831,10 +9893,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9857,13 +9919,13 @@
         <v>84</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9914,7 +9976,7 @@
         <v>74</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
@@ -9929,7 +9991,7 @@
         <v>95</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>74</v>
@@ -9940,10 +10002,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9954,7 +10016,7 @@
         <v>75</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>74</v>
@@ -9969,10 +10031,10 @@
         <v>151</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10002,10 +10064,10 @@
         <v>169</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>388</v>
+        <v>259</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>74</v>
@@ -10023,13 +10085,13 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>74</v>
@@ -10049,10 +10111,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10063,7 +10125,7 @@
         <v>75</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>74</v>
@@ -10075,13 +10137,13 @@
         <v>84</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10132,13 +10194,13 @@
         <v>74</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>74</v>
@@ -10147,7 +10209,7 @@
         <v>95</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>74</v>
@@ -10158,10 +10220,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10187,10 +10249,10 @@
         <v>195</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10241,7 +10303,7 @@
         <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
@@ -10256,7 +10318,7 @@
         <v>95</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>74</v>
@@ -10267,10 +10329,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10376,10 +10438,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10487,10 +10549,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10600,10 +10662,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10629,10 +10691,10 @@
         <v>151</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10659,11 +10721,13 @@
         <v>74</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="Y78" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="Z78" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>74</v>
@@ -10681,7 +10745,7 @@
         <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
@@ -10696,7 +10760,7 @@
         <v>95</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>74</v>
@@ -10707,10 +10771,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10733,13 +10797,13 @@
         <v>84</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10766,13 +10830,13 @@
         <v>74</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>74</v>
@@ -10790,7 +10854,7 @@
         <v>74</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>75</v>
@@ -10805,7 +10869,7 @@
         <v>95</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>74</v>
@@ -10816,10 +10880,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10842,13 +10906,13 @@
         <v>84</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>409</v>
+        <v>151</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10875,13 +10939,13 @@
         <v>74</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>74</v>
+        <v>399</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>74</v>
+        <v>409</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>74</v>
@@ -10899,7 +10963,7 @@
         <v>74</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>75</v>
@@ -10914,7 +10978,7 @@
         <v>95</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>412</v>
+        <v>156</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>74</v>
@@ -10925,10 +10989,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10939,7 +11003,7 @@
         <v>75</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>74</v>
@@ -10951,13 +11015,13 @@
         <v>84</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>183</v>
+        <v>385</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11008,13 +11072,13 @@
         <v>74</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>74</v>
@@ -11023,7 +11087,7 @@
         <v>95</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>74</v>
@@ -11034,10 +11098,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11060,13 +11124,13 @@
         <v>84</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>364</v>
+        <v>195</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>179</v>
+        <v>415</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>180</v>
+        <v>415</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11117,7 +11181,7 @@
         <v>74</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>75</v>
@@ -11132,7 +11196,7 @@
         <v>95</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>74</v>
@@ -11143,10 +11207,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11157,7 +11221,7 @@
         <v>75</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>74</v>
@@ -11166,16 +11230,16 @@
         <v>74</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>420</v>
+        <v>200</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>420</v>
+        <v>201</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11226,47 +11290,47 @@
         <v>74</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>419</v>
+        <v>202</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>421</v>
+        <v>74</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>74</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>74</v>
@@ -11278,15 +11342,17 @@
         <v>74</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>74</v>
@@ -11335,19 +11401,19 @@
         <v>74</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>74</v>
@@ -11361,14 +11427,14 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>128</v>
+        <v>207</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -11381,24 +11447,26 @@
         <v>74</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K85" t="s" s="2">
         <v>129</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>130</v>
+        <v>208</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="N85" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="O85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>74</v>
       </c>
@@ -11446,7 +11514,7 @@
         <v>74</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>75</v>
@@ -11467,51 +11535,47 @@
         <v>74</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>156</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>207</v>
+        <v>74</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J86" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>208</v>
+        <v>421</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>74</v>
       </c>
@@ -11535,13 +11599,11 @@
         <v>74</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="Y86" s="2"/>
       <c r="Z86" t="s" s="2">
-        <v>74</v>
+        <v>423</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>74</v>
@@ -11559,28 +11621,28 @@
         <v>74</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>210</v>
+        <v>420</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>74</v>
+        <v>424</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="87">
@@ -11596,7 +11658,7 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>83</v>
@@ -11611,7 +11673,7 @@
         <v>84</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="L87" t="s" s="2">
         <v>426</v>
@@ -11644,13 +11706,13 @@
         <v>74</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>74</v>
@@ -11671,7 +11733,7 @@
         <v>425</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>83</v>
@@ -11720,13 +11782,13 @@
         <v>84</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>151</v>
+        <v>430</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11753,13 +11815,13 @@
         <v>74</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>432</v>
+        <v>74</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>433</v>
+        <v>74</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>74</v>
@@ -11792,7 +11854,7 @@
         <v>95</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>74</v>
@@ -11803,10 +11865,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11817,7 +11879,7 @@
         <v>75</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>74</v>
@@ -11829,13 +11891,13 @@
         <v>84</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -11862,13 +11924,13 @@
         <v>74</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>74</v>
@@ -11886,13 +11948,13 @@
         <v>74</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>74</v>
@@ -11901,7 +11963,7 @@
         <v>95</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>156</v>
+        <v>437</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>74</v>
@@ -11926,7 +11988,7 @@
         <v>75</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>74</v>
@@ -11938,22 +12000,20 @@
         <v>84</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>439</v>
+        <v>385</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>440</v>
+        <v>179</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>441</v>
+        <v>180</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q90" t="s" s="2">
-        <v>442</v>
-      </c>
+      <c r="Q90" s="2"/>
       <c r="R90" t="s" s="2">
         <v>74</v>
       </c>
@@ -12003,7 +12063,7 @@
         <v>75</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>74</v>
@@ -12012,7 +12072,7 @@
         <v>95</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>156</v>
+        <v>439</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>74</v>
@@ -12023,10 +12083,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12049,13 +12109,13 @@
         <v>84</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12082,13 +12142,13 @@
         <v>74</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>74</v>
@@ -12106,7 +12166,7 @@
         <v>74</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>75</v>
@@ -12121,7 +12181,7 @@
         <v>95</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>74</v>
@@ -12132,10 +12192,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12146,7 +12206,7 @@
         <v>75</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>74</v>
@@ -12155,16 +12215,16 @@
         <v>74</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>448</v>
+        <v>200</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>449</v>
+        <v>201</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12191,13 +12251,13 @@
         <v>74</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>450</v>
+        <v>74</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>451</v>
+        <v>74</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>74</v>
@@ -12215,40 +12275,40 @@
         <v>74</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>447</v>
+        <v>202</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>452</v>
+        <v>74</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>74</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -12264,18 +12324,20 @@
         <v>74</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>454</v>
+        <v>130</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>74</v>
@@ -12300,13 +12362,13 @@
         <v>74</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>456</v>
+        <v>74</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>457</v>
+        <v>74</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>74</v>
@@ -12324,7 +12386,7 @@
         <v>74</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>453</v>
+        <v>205</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>75</v>
@@ -12336,28 +12398,28 @@
         <v>74</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>458</v>
+        <v>74</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>74</v>
+        <v>156</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -12370,22 +12432,26 @@
         <v>74</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J94" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>460</v>
+        <v>208</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>74</v>
       </c>
@@ -12433,7 +12499,7 @@
         <v>74</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>459</v>
+        <v>210</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>75</v>
@@ -12445,24 +12511,24 @@
         <v>74</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12470,10 +12536,10 @@
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>74</v>
@@ -12485,13 +12551,13 @@
         <v>84</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -12542,13 +12608,13 @@
         <v>74</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>74</v>
@@ -12557,7 +12623,7 @@
         <v>95</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>156</v>
+        <v>449</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>74</v>
@@ -12568,10 +12634,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12582,7 +12648,7 @@
         <v>75</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>74</v>
@@ -12594,13 +12660,13 @@
         <v>84</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -12627,13 +12693,13 @@
         <v>74</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>74</v>
+        <v>453</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>74</v>
+        <v>454</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>74</v>
@@ -12651,13 +12717,13 @@
         <v>74</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>74</v>
@@ -12666,7 +12732,7 @@
         <v>95</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>74</v>
@@ -12677,10 +12743,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12700,16 +12766,16 @@
         <v>74</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>200</v>
+        <v>457</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>201</v>
+        <v>458</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -12736,13 +12802,13 @@
         <v>74</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>74</v>
@@ -12760,7 +12826,7 @@
         <v>74</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>202</v>
+        <v>456</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>75</v>
@@ -12772,35 +12838,35 @@
         <v>74</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>74</v>
@@ -12809,25 +12875,25 @@
         <v>74</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>129</v>
+        <v>460</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>130</v>
+        <v>461</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="N98" s="2"/>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="R98" t="s" s="2">
         <v>74</v>
       </c>
@@ -12871,40 +12937,40 @@
         <v>74</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>205</v>
+        <v>459</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>207</v>
+        <v>74</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -12917,26 +12983,22 @@
         <v>74</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J99" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>208</v>
+        <v>465</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>74</v>
       </c>
@@ -12960,13 +13022,13 @@
         <v>74</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>74</v>
@@ -12984,7 +13046,7 @@
         <v>74</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>210</v>
+        <v>464</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>75</v>
@@ -12996,24 +13058,24 @@
         <v>74</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>74</v>
+        <v>467</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13024,7 +13086,7 @@
         <v>75</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>74</v>
@@ -13039,10 +13101,10 @@
         <v>151</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13069,13 +13131,13 @@
         <v>74</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>74</v>
@@ -13093,13 +13155,13 @@
         <v>74</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>74</v>
@@ -13108,7 +13170,7 @@
         <v>95</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>74</v>
@@ -13119,10 +13181,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13133,7 +13195,7 @@
         <v>75</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>74</v>
@@ -13148,10 +13210,10 @@
         <v>151</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13178,13 +13240,13 @@
         <v>74</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>154</v>
+        <v>477</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>155</v>
+        <v>478</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>74</v>
@@ -13202,13 +13264,13 @@
         <v>74</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>74</v>
@@ -13217,7 +13279,7 @@
         <v>95</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>74</v>
@@ -13228,10 +13290,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13242,7 +13304,7 @@
         <v>75</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>74</v>
@@ -13254,13 +13316,13 @@
         <v>84</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>409</v>
+        <v>74</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -13311,13 +13373,13 @@
         <v>74</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>74</v>
@@ -13326,7 +13388,7 @@
         <v>95</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>485</v>
+        <v>156</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>74</v>
@@ -13337,10 +13399,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13363,13 +13425,13 @@
         <v>84</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>364</v>
+        <v>74</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>179</v>
+        <v>484</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>180</v>
+        <v>485</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -13420,7 +13482,7 @@
         <v>74</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>75</v>
@@ -13435,7 +13497,7 @@
         <v>95</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>487</v>
+        <v>156</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>74</v>
@@ -13446,10 +13508,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13475,10 +13537,10 @@
         <v>195</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13529,7 +13591,7 @@
         <v>74</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>75</v>
@@ -13544,7 +13606,7 @@
         <v>95</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>74</v>
@@ -13555,10 +13617,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13664,10 +13726,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13775,10 +13837,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13888,10 +13950,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13914,13 +13976,13 @@
         <v>84</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>496</v>
+        <v>151</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -13947,13 +14009,13 @@
         <v>74</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>74</v>
+        <v>496</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>74</v>
+        <v>497</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>74</v>
@@ -13971,7 +14033,7 @@
         <v>74</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>75</v>
@@ -13986,7 +14048,7 @@
         <v>95</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>74</v>
@@ -13997,10 +14059,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14008,7 +14070,7 @@
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>83</v>
@@ -14026,10 +14088,10 @@
         <v>151</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -14056,13 +14118,13 @@
         <v>74</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>246</v>
+        <v>154</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>503</v>
+        <v>155</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>74</v>
@@ -14080,10 +14142,10 @@
         <v>74</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>83</v>
@@ -14095,7 +14157,7 @@
         <v>95</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>74</v>
@@ -14106,10 +14168,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14132,22 +14194,20 @@
         <v>84</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q110" t="s" s="2">
-        <v>508</v>
-      </c>
+      <c r="Q110" s="2"/>
       <c r="R110" t="s" s="2">
         <v>74</v>
       </c>
@@ -14191,7 +14251,7 @@
         <v>74</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>75</v>
@@ -14206,7 +14266,7 @@
         <v>95</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>74</v>
@@ -14217,10 +14277,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14231,7 +14291,7 @@
         <v>75</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>74</v>
@@ -14243,13 +14303,13 @@
         <v>84</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>511</v>
+        <v>385</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>512</v>
+        <v>179</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>513</v>
+        <v>180</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -14300,13 +14360,13 @@
         <v>74</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>74</v>
@@ -14315,7 +14375,7 @@
         <v>95</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>74</v>
@@ -14326,10 +14386,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14340,7 +14400,7 @@
         <v>75</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>74</v>
@@ -14352,13 +14412,13 @@
         <v>84</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>516</v>
+        <v>195</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -14409,13 +14469,13 @@
         <v>74</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>74</v>
@@ -14424,7 +14484,7 @@
         <v>95</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>74</v>
@@ -14435,10 +14495,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -14458,16 +14518,16 @@
         <v>74</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>521</v>
+        <v>200</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>522</v>
+        <v>201</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -14494,13 +14554,13 @@
         <v>74</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>246</v>
+        <v>74</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>247</v>
+        <v>74</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>74</v>
@@ -14518,7 +14578,7 @@
         <v>74</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>520</v>
+        <v>202</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>75</v>
@@ -14530,28 +14590,28 @@
         <v>74</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>523</v>
+        <v>74</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>74</v>
+        <v>156</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
@@ -14567,18 +14627,20 @@
         <v>74</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>364</v>
+        <v>129</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N114" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
         <v>74</v>
@@ -14627,7 +14689,7 @@
         <v>74</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>524</v>
+        <v>205</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>75</v>
@@ -14639,56 +14701,60 @@
         <v>74</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>525</v>
+        <v>74</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>74</v>
+        <v>156</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J115" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>527</v>
+        <v>129</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>528</v>
+        <v>208</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P115" t="s" s="2">
         <v>74</v>
       </c>
@@ -14736,36 +14802,36 @@
         <v>74</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>526</v>
+        <v>210</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>530</v>
+        <v>74</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -14788,13 +14854,13 @@
         <v>84</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -14845,7 +14911,7 @@
         <v>74</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>75</v>
@@ -14860,7 +14926,7 @@
         <v>95</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>74</v>
@@ -14871,10 +14937,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14882,7 +14948,7 @@
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>83</v>
@@ -14897,13 +14963,13 @@
         <v>84</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>537</v>
+        <v>151</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -14930,13 +14996,13 @@
         <v>74</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>74</v>
+        <v>246</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>74</v>
+        <v>524</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>74</v>
@@ -14954,10 +15020,10 @@
         <v>74</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>83</v>
@@ -14969,7 +15035,7 @@
         <v>95</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>74</v>
@@ -14980,10 +15046,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -15006,20 +15072,22 @@
         <v>84</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>195</v>
+        <v>460</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q118" s="2"/>
+      <c r="Q118" t="s" s="2">
+        <v>529</v>
+      </c>
       <c r="R118" t="s" s="2">
         <v>74</v>
       </c>
@@ -15063,7 +15131,7 @@
         <v>74</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>75</v>
@@ -15078,7 +15146,7 @@
         <v>95</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>74</v>
@@ -15089,10 +15157,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -15112,16 +15180,16 @@
         <v>74</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>146</v>
+        <v>532</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>200</v>
+        <v>533</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>201</v>
+        <v>534</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -15172,7 +15240,7 @@
         <v>74</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>202</v>
+        <v>531</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>75</v>
@@ -15184,35 +15252,35 @@
         <v>74</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>74</v>
+        <v>535</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>74</v>
@@ -15221,20 +15289,18 @@
         <v>74</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>129</v>
+        <v>537</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>130</v>
+        <v>538</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="N120" s="2"/>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
         <v>74</v>
@@ -15283,72 +15349,68 @@
         <v>74</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>205</v>
+        <v>536</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>74</v>
+        <v>540</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>207</v>
+        <v>74</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I121" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J121" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>208</v>
+        <v>542</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="N121" s="2"/>
+      <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
         <v>74</v>
       </c>
@@ -15372,13 +15434,13 @@
         <v>74</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>74</v>
+        <v>246</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>74</v>
@@ -15396,36 +15458,36 @@
         <v>74</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>210</v>
+        <v>541</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>74</v>
+        <v>544</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -15436,7 +15498,7 @@
         <v>75</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>74</v>
@@ -15448,13 +15510,13 @@
         <v>84</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>151</v>
+        <v>385</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>549</v>
+        <v>179</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>550</v>
+        <v>180</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -15481,13 +15543,13 @@
         <v>74</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>551</v>
+        <v>74</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>552</v>
+        <v>74</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>74</v>
@@ -15505,13 +15567,13 @@
         <v>74</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>74</v>
@@ -15520,7 +15582,7 @@
         <v>95</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>74</v>
@@ -15531,10 +15593,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -15557,13 +15619,13 @@
         <v>84</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>151</v>
+        <v>548</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -15590,13 +15652,13 @@
         <v>74</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>556</v>
+        <v>74</v>
       </c>
       <c r="Z123" t="s" s="2">
-        <v>557</v>
+        <v>74</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>74</v>
@@ -15614,7 +15676,7 @@
         <v>74</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>75</v>
@@ -15629,7 +15691,7 @@
         <v>95</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>74</v>
@@ -15640,10 +15702,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -15666,13 +15728,13 @@
         <v>84</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>151</v>
+        <v>553</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -15699,13 +15761,13 @@
         <v>74</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>562</v>
+        <v>74</v>
       </c>
       <c r="Z124" t="s" s="2">
-        <v>563</v>
+        <v>74</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>74</v>
@@ -15723,7 +15785,7 @@
         <v>74</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>75</v>
@@ -15738,7 +15800,7 @@
         <v>95</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>74</v>
@@ -15749,10 +15811,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -15775,13 +15837,13 @@
         <v>84</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>151</v>
+        <v>558</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -15808,13 +15870,13 @@
         <v>74</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>567</v>
+        <v>74</v>
       </c>
       <c r="Z125" t="s" s="2">
-        <v>568</v>
+        <v>74</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>74</v>
@@ -15832,7 +15894,7 @@
         <v>74</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>75</v>
@@ -15847,7 +15909,7 @@
         <v>95</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>74</v>
@@ -15858,10 +15920,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -15872,7 +15934,7 @@
         <v>75</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>74</v>
@@ -15884,13 +15946,13 @@
         <v>84</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -15917,13 +15979,13 @@
         <v>74</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>313</v>
+        <v>74</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>456</v>
+        <v>74</v>
       </c>
       <c r="Z126" t="s" s="2">
-        <v>573</v>
+        <v>74</v>
       </c>
       <c r="AA126" t="s" s="2">
         <v>74</v>
@@ -15941,13 +16003,13 @@
         <v>74</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>74</v>
@@ -15956,12 +16018,890 @@
         <v>95</v>
       </c>
       <c r="AK126" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM126" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="C127" s="2"/>
+      <c r="D127" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E127" s="2"/>
+      <c r="F127" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G127" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K127" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N127" s="2"/>
+      <c r="O127" s="2"/>
+      <c r="P127" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q127" s="2"/>
+      <c r="R127" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S127" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE127" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF127" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AG127" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH127" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI127" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL127" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM127" t="s" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="C128" s="2"/>
+      <c r="D128" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="E128" s="2"/>
+      <c r="F128" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G128" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I128" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N128" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O128" s="2"/>
+      <c r="P128" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q128" s="2"/>
+      <c r="R128" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S128" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T128" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U128" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V128" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W128" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y128" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF128" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AG128" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH128" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI128" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ128" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL128" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM128" t="s" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="C129" s="2"/>
+      <c r="D129" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="E129" s="2"/>
+      <c r="F129" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G129" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I129" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J129" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K129" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L129" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M129" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O129" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="P129" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q129" s="2"/>
+      <c r="R129" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S129" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T129" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U129" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V129" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W129" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X129" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y129" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z129" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA129" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB129" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC129" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD129" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE129" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF129" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AG129" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH129" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI129" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ129" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AK129" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL129" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM129" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E130" s="2"/>
+      <c r="F130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G130" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I130" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J130" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K130" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="N130" s="2"/>
+      <c r="O130" s="2"/>
+      <c r="P130" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q130" s="2"/>
+      <c r="R130" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S130" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T130" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U130" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V130" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W130" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X130" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="Y130" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="Z130" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AA130" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC130" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD130" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE130" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF130" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AG130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH130" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI130" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ130" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK130" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="AL126" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM126" t="s" s="2">
+      <c r="AL130" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM130" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="C131" s="2"/>
+      <c r="D131" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E131" s="2"/>
+      <c r="F131" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G131" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H131" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I131" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J131" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K131" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M131" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="N131" s="2"/>
+      <c r="O131" s="2"/>
+      <c r="P131" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q131" s="2"/>
+      <c r="R131" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S131" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T131" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U131" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V131" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W131" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X131" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="Y131" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="Z131" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AA131" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD131" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE131" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF131" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AG131" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH131" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI131" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ131" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK131" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AL131" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM131" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B132" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E132" s="2"/>
+      <c r="F132" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G132" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J132" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K132" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L132" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2"/>
+      <c r="P132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q132" s="2"/>
+      <c r="R132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X132" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="Y132" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="Z132" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AA132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF132" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AG132" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH132" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ132" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK132" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AL132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM132" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="B133" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E133" s="2"/>
+      <c r="F133" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G133" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I133" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J133" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K133" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="N133" s="2"/>
+      <c r="O133" s="2"/>
+      <c r="P133" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q133" s="2"/>
+      <c r="R133" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S133" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T133" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U133" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V133" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W133" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X133" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="Y133" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="Z133" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AA133" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB133" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC133" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD133" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE133" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF133" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AG133" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH133" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI133" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ133" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK133" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AL133" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM133" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="B134" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="C134" s="2"/>
+      <c r="D134" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E134" s="2"/>
+      <c r="F134" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G134" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I134" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J134" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K134" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L134" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="N134" s="2"/>
+      <c r="O134" s="2"/>
+      <c r="P134" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q134" s="2"/>
+      <c r="R134" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S134" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T134" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U134" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V134" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W134" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X134" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Y134" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="Z134" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AA134" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB134" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC134" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD134" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE134" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF134" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AG134" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH134" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI134" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ134" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK134" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AL134" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM134" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T10:20:03+00:00</t>
+    <t>2022-12-17T12:06:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T12:06:32+00:00</t>
+    <t>2022-12-17T12:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T12:26:35+00:00</t>
+    <t>2022-12-19T17:15:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T17:15:26+00:00</t>
+    <t>2022-12-20T15:01:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T15:01:34+00:00</t>
+    <t>2022-12-21T15:08:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T15:08:00+00:00</t>
+    <t>2022-12-21T16:19:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T16:19:38+00:00</t>
+    <t>2022-12-22T16:01:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4645" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4645" uniqueCount="597">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-22T16:01:13+00:00</t>
+    <t>2023-01-13T20:22:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -244,6 +244,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>The detailed description of a substance, typically at a level beyond what is used for prescribing</t>
@@ -2340,13 +2344,13 @@
         <v>74</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2412,21 +2416,21 @@
         <v>74</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2437,7 +2441,7 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>74</v>
@@ -2446,19 +2450,19 @@
         <v>74</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2508,13 +2512,13 @@
         <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>74</v>
@@ -2534,10 +2538,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2548,7 +2552,7 @@
         <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>74</v>
@@ -2557,16 +2561,16 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2617,19 +2621,19 @@
         <v>74</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>74</v>
@@ -2643,10 +2647,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2657,28 +2661,28 @@
         <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2728,19 +2732,19 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>74</v>
@@ -2754,10 +2758,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2768,7 +2772,7 @@
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -2780,16 +2784,16 @@
         <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2815,13 +2819,13 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>74</v>
@@ -2839,19 +2843,19 @@
         <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>74</v>
@@ -2865,21 +2869,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>74</v>
@@ -2891,16 +2895,16 @@
         <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2950,19 +2954,19 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>74</v>
@@ -2971,19 +2975,19 @@
         <v>74</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3002,16 +3006,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3061,7 +3065,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -3082,19 +3086,19 @@
         <v>74</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3113,16 +3117,16 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3172,7 +3176,7 @@
         <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -3184,7 +3188,7 @@
         <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>74</v>
@@ -3193,19 +3197,19 @@
         <v>74</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3218,25 +3222,25 @@
         <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -3285,7 +3289,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -3297,7 +3301,7 @@
         <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>74</v>
@@ -3306,15 +3310,15 @@
         <v>74</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3334,16 +3338,16 @@
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3394,7 +3398,7 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -3406,10 +3410,10 @@
         <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>74</v>
@@ -3420,10 +3424,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3434,7 +3438,7 @@
         <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>74</v>
@@ -3443,16 +3447,16 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3503,22 +3507,22 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>74</v>
@@ -3529,10 +3533,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3543,7 +3547,7 @@
         <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>74</v>
@@ -3552,16 +3556,16 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3588,13 +3592,13 @@
         <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>74</v>
@@ -3612,22 +3616,22 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>74</v>
@@ -3638,10 +3642,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3661,16 +3665,16 @@
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3721,7 +3725,7 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3733,10 +3737,10 @@
         <v>74</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>74</v>
@@ -3747,10 +3751,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3761,7 +3765,7 @@
         <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>74</v>
@@ -3770,16 +3774,16 @@
         <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3806,11 +3810,11 @@
         <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>74</v>
@@ -3828,22 +3832,22 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>74</v>
@@ -3854,10 +3858,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3877,16 +3881,16 @@
         <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3913,13 +3917,13 @@
         <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>74</v>
@@ -3937,7 +3941,7 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -3949,10 +3953,10 @@
         <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>74</v>
@@ -3963,10 +3967,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3977,7 +3981,7 @@
         <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
@@ -3986,16 +3990,16 @@
         <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4046,22 +4050,22 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>74</v>
@@ -4072,10 +4076,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4095,16 +4099,16 @@
         <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4155,7 +4159,7 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -4167,10 +4171,10 @@
         <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>74</v>
@@ -4181,10 +4185,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4204,16 +4208,16 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4264,7 +4268,7 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -4276,10 +4280,10 @@
         <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>74</v>
@@ -4290,10 +4294,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4313,16 +4317,16 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4373,7 +4377,7 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -4385,10 +4389,10 @@
         <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>74</v>
@@ -4399,10 +4403,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4422,16 +4426,16 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4482,7 +4486,7 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -4494,10 +4498,10 @@
         <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
@@ -4508,10 +4512,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4531,16 +4535,16 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4591,7 +4595,7 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -4603,10 +4607,10 @@
         <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
@@ -4617,10 +4621,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4631,7 +4635,7 @@
         <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>74</v>
@@ -4643,13 +4647,13 @@
         <v>74</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4700,13 +4704,13 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>74</v>
@@ -4721,19 +4725,19 @@
         <v>74</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4752,16 +4756,16 @@
         <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4811,7 +4815,7 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4823,7 +4827,7 @@
         <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>74</v>
@@ -4832,19 +4836,19 @@
         <v>74</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4857,25 +4861,25 @@
         <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>74</v>
@@ -4924,7 +4928,7 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4936,7 +4940,7 @@
         <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>74</v>
@@ -4945,15 +4949,15 @@
         <v>74</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4964,7 +4968,7 @@
         <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -4973,16 +4977,16 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5033,22 +5037,22 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
@@ -5059,10 +5063,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5073,7 +5077,7 @@
         <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>74</v>
@@ -5082,16 +5086,16 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5142,22 +5146,22 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>74</v>
@@ -5168,10 +5172,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5182,7 +5186,7 @@
         <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
@@ -5191,16 +5195,16 @@
         <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5251,22 +5255,22 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>74</v>
@@ -5277,10 +5281,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5291,7 +5295,7 @@
         <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
@@ -5300,16 +5304,16 @@
         <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5336,13 +5340,13 @@
         <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>74</v>
@@ -5360,22 +5364,22 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
@@ -5386,10 +5390,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5400,7 +5404,7 @@
         <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>74</v>
@@ -5409,16 +5413,16 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5445,13 +5449,13 @@
         <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>74</v>
@@ -5469,22 +5473,22 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
@@ -5495,10 +5499,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5509,7 +5513,7 @@
         <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>74</v>
@@ -5518,16 +5522,16 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5578,22 +5582,22 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
@@ -5604,10 +5608,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5618,7 +5622,7 @@
         <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>74</v>
@@ -5627,16 +5631,16 @@
         <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5687,22 +5691,22 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>74</v>
@@ -5713,10 +5717,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5727,7 +5731,7 @@
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
@@ -5736,16 +5740,16 @@
         <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5772,13 +5776,13 @@
         <v>74</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>74</v>
@@ -5796,22 +5800,22 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>74</v>
@@ -5822,10 +5826,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5845,16 +5849,16 @@
         <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5905,7 +5909,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5917,10 +5921,10 @@
         <v>74</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>74</v>
@@ -5931,10 +5935,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5945,7 +5949,7 @@
         <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>74</v>
@@ -5957,13 +5961,13 @@
         <v>74</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6014,13 +6018,13 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>74</v>
@@ -6035,19 +6039,19 @@
         <v>74</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6066,16 +6070,16 @@
         <v>74</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6125,7 +6129,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -6137,7 +6141,7 @@
         <v>74</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>74</v>
@@ -6146,19 +6150,19 @@
         <v>74</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6171,25 +6175,25 @@
         <v>74</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>74</v>
@@ -6238,7 +6242,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -6250,7 +6254,7 @@
         <v>74</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>74</v>
@@ -6259,15 +6263,15 @@
         <v>74</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6278,7 +6282,7 @@
         <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>74</v>
@@ -6287,16 +6291,16 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6323,13 +6327,13 @@
         <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>74</v>
@@ -6347,22 +6351,22 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>74</v>
@@ -6373,10 +6377,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6387,7 +6391,7 @@
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>74</v>
@@ -6396,16 +6400,16 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6432,11 +6436,11 @@
         <v>74</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>74</v>
@@ -6454,22 +6458,22 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
@@ -6480,10 +6484,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6494,7 +6498,7 @@
         <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>74</v>
@@ -6503,16 +6507,16 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6563,22 +6567,22 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
@@ -6589,10 +6593,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6612,16 +6616,16 @@
         <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6672,7 +6676,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6684,10 +6688,10 @@
         <v>74</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -6698,10 +6702,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6721,16 +6725,16 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6781,7 +6785,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6793,10 +6797,10 @@
         <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
@@ -6807,10 +6811,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6821,7 +6825,7 @@
         <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>74</v>
@@ -6833,13 +6837,13 @@
         <v>74</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6890,13 +6894,13 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>74</v>
@@ -6911,19 +6915,19 @@
         <v>74</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6942,16 +6946,16 @@
         <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7001,7 +7005,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -7013,7 +7017,7 @@
         <v>74</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>74</v>
@@ -7022,19 +7026,19 @@
         <v>74</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7047,25 +7051,25 @@
         <v>74</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>74</v>
@@ -7114,7 +7118,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -7126,7 +7130,7 @@
         <v>74</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>74</v>
@@ -7135,15 +7139,15 @@
         <v>74</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7151,10 +7155,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>74</v>
@@ -7163,16 +7167,16 @@
         <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7199,13 +7203,13 @@
         <v>74</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>74</v>
@@ -7223,22 +7227,22 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>
@@ -7249,10 +7253,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7263,7 +7267,7 @@
         <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>74</v>
@@ -7272,16 +7276,16 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7332,22 +7336,22 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>74</v>
@@ -7358,10 +7362,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7372,7 +7376,7 @@
         <v>75</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>74</v>
@@ -7381,16 +7385,16 @@
         <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7441,22 +7445,22 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>74</v>
@@ -7467,10 +7471,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7490,16 +7494,16 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7550,7 +7554,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7562,7 +7566,7 @@
         <v>74</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>74</v>
@@ -7576,10 +7580,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7590,7 +7594,7 @@
         <v>75</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>74</v>
@@ -7602,13 +7606,13 @@
         <v>74</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7659,13 +7663,13 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>74</v>
@@ -7680,19 +7684,19 @@
         <v>74</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7711,16 +7715,16 @@
         <v>74</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7770,7 +7774,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7782,7 +7786,7 @@
         <v>74</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>74</v>
@@ -7791,19 +7795,19 @@
         <v>74</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7816,25 +7820,25 @@
         <v>74</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>74</v>
@@ -7883,7 +7887,7 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -7895,7 +7899,7 @@
         <v>74</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>74</v>
@@ -7904,15 +7908,15 @@
         <v>74</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7923,7 +7927,7 @@
         <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>74</v>
@@ -7932,16 +7936,16 @@
         <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7968,13 +7972,13 @@
         <v>74</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>74</v>
@@ -7992,22 +7996,22 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>74</v>
@@ -8018,10 +8022,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8032,7 +8036,7 @@
         <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>74</v>
@@ -8041,16 +8045,16 @@
         <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8077,13 +8081,13 @@
         <v>74</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>74</v>
@@ -8101,22 +8105,22 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
@@ -8127,10 +8131,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8138,10 +8142,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>74</v>
@@ -8150,16 +8154,16 @@
         <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8210,22 +8214,22 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>74</v>
@@ -8236,10 +8240,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8250,7 +8254,7 @@
         <v>75</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>74</v>
@@ -8262,13 +8266,13 @@
         <v>74</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8319,13 +8323,13 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>74</v>
@@ -8340,19 +8344,19 @@
         <v>74</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8371,16 +8375,16 @@
         <v>74</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8418,19 +8422,19 @@
         <v>74</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -8442,7 +8446,7 @@
         <v>74</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>74</v>
@@ -8451,15 +8455,15 @@
         <v>74</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8470,7 +8474,7 @@
         <v>75</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>74</v>
@@ -8479,22 +8483,22 @@
         <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>74</v>
@@ -8543,19 +8547,19 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>74</v>
@@ -8564,15 +8568,15 @@
         <v>74</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8583,35 +8587,35 @@
         <v>75</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q59" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>74</v>
@@ -8632,11 +8636,11 @@
         <v>74</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Y59" s="2"/>
       <c r="Z59" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>74</v>
@@ -8654,19 +8658,19 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>74</v>
@@ -8675,15 +8679,15 @@
         <v>74</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8694,7 +8698,7 @@
         <v>75</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>74</v>
@@ -8703,20 +8707,20 @@
         <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>74</v>
@@ -8765,19 +8769,19 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>74</v>
@@ -8786,15 +8790,15 @@
         <v>74</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8805,7 +8809,7 @@
         <v>75</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>74</v>
@@ -8814,20 +8818,20 @@
         <v>74</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>74</v>
@@ -8876,19 +8880,19 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>74</v>
@@ -8897,15 +8901,15 @@
         <v>74</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8916,7 +8920,7 @@
         <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>74</v>
@@ -8925,22 +8929,22 @@
         <v>74</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>74</v>
@@ -8989,19 +8993,19 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>74</v>
@@ -9010,15 +9014,15 @@
         <v>74</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9029,7 +9033,7 @@
         <v>75</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>74</v>
@@ -9038,16 +9042,16 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9098,22 +9102,22 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>74</v>
@@ -9124,10 +9128,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9138,7 +9142,7 @@
         <v>75</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>74</v>
@@ -9150,13 +9154,13 @@
         <v>74</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9207,13 +9211,13 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>74</v>
@@ -9228,19 +9232,19 @@
         <v>74</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9259,16 +9263,16 @@
         <v>74</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9318,7 +9322,7 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -9330,7 +9334,7 @@
         <v>74</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>74</v>
@@ -9339,19 +9343,19 @@
         <v>74</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9364,25 +9368,25 @@
         <v>74</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>74</v>
@@ -9431,7 +9435,7 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -9443,7 +9447,7 @@
         <v>74</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>74</v>
@@ -9452,15 +9456,15 @@
         <v>74</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9471,7 +9475,7 @@
         <v>75</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>74</v>
@@ -9480,16 +9484,16 @@
         <v>74</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9516,13 +9520,13 @@
         <v>74</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>74</v>
@@ -9540,22 +9544,22 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>74</v>
@@ -9566,10 +9570,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9580,7 +9584,7 @@
         <v>75</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>74</v>
@@ -9589,16 +9593,16 @@
         <v>74</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9625,13 +9629,13 @@
         <v>74</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>74</v>
@@ -9649,22 +9653,22 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>74</v>
@@ -9675,10 +9679,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9689,7 +9693,7 @@
         <v>75</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>74</v>
@@ -9698,16 +9702,16 @@
         <v>74</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9758,22 +9762,22 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>74</v>
@@ -9784,10 +9788,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9798,7 +9802,7 @@
         <v>75</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>74</v>
@@ -9807,16 +9811,16 @@
         <v>74</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9867,22 +9871,22 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>74</v>
@@ -9893,10 +9897,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9907,7 +9911,7 @@
         <v>75</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>74</v>
@@ -9916,16 +9920,16 @@
         <v>74</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9976,22 +9980,22 @@
         <v>74</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>74</v>
@@ -10002,10 +10006,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10025,16 +10029,16 @@
         <v>74</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10061,13 +10065,13 @@
         <v>74</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>74</v>
@@ -10085,7 +10089,7 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
@@ -10097,10 +10101,10 @@
         <v>74</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>74</v>
@@ -10111,10 +10115,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10134,16 +10138,16 @@
         <v>74</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10194,7 +10198,7 @@
         <v>74</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
@@ -10206,10 +10210,10 @@
         <v>74</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>74</v>
@@ -10220,10 +10224,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10243,16 +10247,16 @@
         <v>74</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10303,7 +10307,7 @@
         <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
@@ -10315,10 +10319,10 @@
         <v>74</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>74</v>
@@ -10329,10 +10333,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10343,7 +10347,7 @@
         <v>75</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>74</v>
@@ -10355,13 +10359,13 @@
         <v>74</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10412,13 +10416,13 @@
         <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>74</v>
@@ -10433,19 +10437,19 @@
         <v>74</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10464,16 +10468,16 @@
         <v>74</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10523,7 +10527,7 @@
         <v>74</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
@@ -10535,7 +10539,7 @@
         <v>74</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>74</v>
@@ -10544,19 +10548,19 @@
         <v>74</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -10569,25 +10573,25 @@
         <v>74</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>74</v>
@@ -10636,7 +10640,7 @@
         <v>74</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>75</v>
@@ -10648,7 +10652,7 @@
         <v>74</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>74</v>
@@ -10657,15 +10661,15 @@
         <v>74</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10676,7 +10680,7 @@
         <v>75</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>74</v>
@@ -10685,16 +10689,16 @@
         <v>74</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10721,13 +10725,13 @@
         <v>74</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>74</v>
@@ -10745,22 +10749,22 @@
         <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>74</v>
@@ -10771,10 +10775,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10785,7 +10789,7 @@
         <v>75</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>74</v>
@@ -10794,16 +10798,16 @@
         <v>74</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10854,22 +10858,22 @@
         <v>74</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>74</v>
@@ -10880,10 +10884,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10894,7 +10898,7 @@
         <v>75</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>74</v>
@@ -10903,16 +10907,16 @@
         <v>74</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10939,13 +10943,13 @@
         <v>74</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>74</v>
@@ -10963,22 +10967,22 @@
         <v>74</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>74</v>
@@ -10989,10 +10993,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11003,7 +11007,7 @@
         <v>75</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>74</v>
@@ -11012,16 +11016,16 @@
         <v>74</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11072,22 +11076,22 @@
         <v>74</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>74</v>
@@ -11098,10 +11102,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11121,16 +11125,16 @@
         <v>74</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11181,7 +11185,7 @@
         <v>74</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>75</v>
@@ -11193,10 +11197,10 @@
         <v>74</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>74</v>
@@ -11207,10 +11211,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11221,7 +11225,7 @@
         <v>75</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>74</v>
@@ -11233,13 +11237,13 @@
         <v>74</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11290,13 +11294,13 @@
         <v>74</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>74</v>
@@ -11311,19 +11315,19 @@
         <v>74</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -11342,16 +11346,16 @@
         <v>74</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11401,7 +11405,7 @@
         <v>74</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>75</v>
@@ -11413,7 +11417,7 @@
         <v>74</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>74</v>
@@ -11422,19 +11426,19 @@
         <v>74</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -11447,25 +11451,25 @@
         <v>74</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>74</v>
@@ -11514,7 +11518,7 @@
         <v>74</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>75</v>
@@ -11526,7 +11530,7 @@
         <v>74</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>74</v>
@@ -11535,15 +11539,15 @@
         <v>74</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11554,7 +11558,7 @@
         <v>75</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>74</v>
@@ -11563,16 +11567,16 @@
         <v>74</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11599,11 +11603,11 @@
         <v>74</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y86" s="2"/>
       <c r="Z86" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>74</v>
@@ -11621,22 +11625,22 @@
         <v>74</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>74</v>
@@ -11647,10 +11651,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11661,7 +11665,7 @@
         <v>75</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>74</v>
@@ -11670,16 +11674,16 @@
         <v>74</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11706,13 +11710,13 @@
         <v>74</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>74</v>
@@ -11730,22 +11734,22 @@
         <v>74</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>74</v>
@@ -11756,10 +11760,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11770,7 +11774,7 @@
         <v>75</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>74</v>
@@ -11779,16 +11783,16 @@
         <v>74</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11839,22 +11843,22 @@
         <v>74</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>74</v>
@@ -11865,10 +11869,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11888,16 +11892,16 @@
         <v>74</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -11948,7 +11952,7 @@
         <v>74</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>75</v>
@@ -11960,10 +11964,10 @@
         <v>74</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>74</v>
@@ -11974,10 +11978,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11997,16 +12001,16 @@
         <v>74</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12057,7 +12061,7 @@
         <v>74</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>75</v>
@@ -12069,10 +12073,10 @@
         <v>74</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>74</v>
@@ -12083,10 +12087,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12106,16 +12110,16 @@
         <v>74</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12166,7 +12170,7 @@
         <v>74</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>75</v>
@@ -12178,10 +12182,10 @@
         <v>74</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>74</v>
@@ -12192,10 +12196,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12206,7 +12210,7 @@
         <v>75</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>74</v>
@@ -12218,13 +12222,13 @@
         <v>74</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12275,13 +12279,13 @@
         <v>74</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>74</v>
@@ -12296,19 +12300,19 @@
         <v>74</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -12327,16 +12331,16 @@
         <v>74</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -12386,7 +12390,7 @@
         <v>74</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>75</v>
@@ -12398,7 +12402,7 @@
         <v>74</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>74</v>
@@ -12407,19 +12411,19 @@
         <v>74</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -12432,25 +12436,25 @@
         <v>74</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>74</v>
@@ -12499,7 +12503,7 @@
         <v>74</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>75</v>
@@ -12511,7 +12515,7 @@
         <v>74</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>74</v>
@@ -12520,15 +12524,15 @@
         <v>74</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12536,10 +12540,10 @@
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>74</v>
@@ -12548,16 +12552,16 @@
         <v>74</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -12608,22 +12612,22 @@
         <v>74</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>74</v>
@@ -12634,10 +12638,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12648,7 +12652,7 @@
         <v>75</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>74</v>
@@ -12657,16 +12661,16 @@
         <v>74</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -12693,13 +12697,13 @@
         <v>74</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>74</v>
@@ -12717,22 +12721,22 @@
         <v>74</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>74</v>
@@ -12743,10 +12747,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12757,7 +12761,7 @@
         <v>75</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>74</v>
@@ -12766,16 +12770,16 @@
         <v>74</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -12802,13 +12806,13 @@
         <v>74</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>74</v>
@@ -12826,22 +12830,22 @@
         <v>74</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>74</v>
@@ -12852,10 +12856,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12866,7 +12870,7 @@
         <v>75</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>74</v>
@@ -12875,16 +12879,16 @@
         <v>74</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -12892,7 +12896,7 @@
         <v>74</v>
       </c>
       <c r="Q98" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="R98" t="s" s="2">
         <v>74</v>
@@ -12937,22 +12941,22 @@
         <v>74</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>74</v>
@@ -12963,10 +12967,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12986,16 +12990,16 @@
         <v>74</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13022,13 +13026,13 @@
         <v>74</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>74</v>
@@ -13046,7 +13050,7 @@
         <v>74</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>75</v>
@@ -13058,10 +13062,10 @@
         <v>74</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>74</v>
@@ -13072,10 +13076,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13095,16 +13099,16 @@
         <v>74</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13131,13 +13135,13 @@
         <v>74</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>74</v>
@@ -13155,7 +13159,7 @@
         <v>74</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>75</v>
@@ -13167,10 +13171,10 @@
         <v>74</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>74</v>
@@ -13181,10 +13185,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13204,16 +13208,16 @@
         <v>74</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13240,13 +13244,13 @@
         <v>74</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>74</v>
@@ -13264,7 +13268,7 @@
         <v>74</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>75</v>
@@ -13276,10 +13280,10 @@
         <v>74</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>74</v>
@@ -13290,10 +13294,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13313,16 +13317,16 @@
         <v>74</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -13373,7 +13377,7 @@
         <v>74</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>75</v>
@@ -13385,10 +13389,10 @@
         <v>74</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>74</v>
@@ -13399,10 +13403,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13422,16 +13426,16 @@
         <v>74</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -13482,7 +13486,7 @@
         <v>74</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>75</v>
@@ -13494,10 +13498,10 @@
         <v>74</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>74</v>
@@ -13508,10 +13512,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13531,16 +13535,16 @@
         <v>74</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13591,7 +13595,7 @@
         <v>74</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>75</v>
@@ -13603,10 +13607,10 @@
         <v>74</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>74</v>
@@ -13617,10 +13621,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13631,7 +13635,7 @@
         <v>75</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>74</v>
@@ -13643,13 +13647,13 @@
         <v>74</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -13700,13 +13704,13 @@
         <v>74</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>74</v>
@@ -13721,19 +13725,19 @@
         <v>74</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -13752,16 +13756,16 @@
         <v>74</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -13811,7 +13815,7 @@
         <v>74</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>75</v>
@@ -13823,7 +13827,7 @@
         <v>74</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>74</v>
@@ -13832,19 +13836,19 @@
         <v>74</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -13857,25 +13861,25 @@
         <v>74</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>74</v>
@@ -13924,7 +13928,7 @@
         <v>74</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>75</v>
@@ -13936,7 +13940,7 @@
         <v>74</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>74</v>
@@ -13945,15 +13949,15 @@
         <v>74</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13964,7 +13968,7 @@
         <v>75</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>74</v>
@@ -13973,16 +13977,16 @@
         <v>74</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -14009,13 +14013,13 @@
         <v>74</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>74</v>
@@ -14033,22 +14037,22 @@
         <v>74</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>74</v>
@@ -14059,10 +14063,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14073,7 +14077,7 @@
         <v>75</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>74</v>
@@ -14082,16 +14086,16 @@
         <v>74</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -14118,13 +14122,13 @@
         <v>74</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>74</v>
@@ -14142,22 +14146,22 @@
         <v>74</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>74</v>
@@ -14168,10 +14172,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14182,7 +14186,7 @@
         <v>75</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>74</v>
@@ -14191,16 +14195,16 @@
         <v>74</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -14251,22 +14255,22 @@
         <v>74</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>74</v>
@@ -14277,10 +14281,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14300,16 +14304,16 @@
         <v>74</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -14360,7 +14364,7 @@
         <v>74</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>75</v>
@@ -14372,10 +14376,10 @@
         <v>74</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>74</v>
@@ -14386,10 +14390,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14409,16 +14413,16 @@
         <v>74</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -14469,7 +14473,7 @@
         <v>74</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>75</v>
@@ -14481,10 +14485,10 @@
         <v>74</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>74</v>
@@ -14495,10 +14499,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -14509,7 +14513,7 @@
         <v>75</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>74</v>
@@ -14521,13 +14525,13 @@
         <v>74</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -14578,13 +14582,13 @@
         <v>74</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>74</v>
@@ -14599,19 +14603,19 @@
         <v>74</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
@@ -14630,16 +14634,16 @@
         <v>74</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -14689,7 +14693,7 @@
         <v>74</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>75</v>
@@ -14701,7 +14705,7 @@
         <v>74</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>74</v>
@@ -14710,19 +14714,19 @@
         <v>74</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -14735,25 +14739,25 @@
         <v>74</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>74</v>
@@ -14802,7 +14806,7 @@
         <v>74</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>75</v>
@@ -14814,7 +14818,7 @@
         <v>74</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>74</v>
@@ -14823,15 +14827,15 @@
         <v>74</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -14842,7 +14846,7 @@
         <v>75</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>74</v>
@@ -14851,16 +14855,16 @@
         <v>74</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -14911,22 +14915,22 @@
         <v>74</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>74</v>
@@ -14937,10 +14941,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14948,10 +14952,10 @@
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>74</v>
@@ -14960,16 +14964,16 @@
         <v>74</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -14996,13 +15000,13 @@
         <v>74</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>74</v>
@@ -15020,22 +15024,22 @@
         <v>74</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>74</v>
@@ -15046,10 +15050,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -15060,7 +15064,7 @@
         <v>75</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>74</v>
@@ -15069,16 +15073,16 @@
         <v>74</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -15086,7 +15090,7 @@
         <v>74</v>
       </c>
       <c r="Q118" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="R118" t="s" s="2">
         <v>74</v>
@@ -15131,22 +15135,22 @@
         <v>74</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>74</v>
@@ -15157,10 +15161,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -15171,7 +15175,7 @@
         <v>75</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>74</v>
@@ -15180,16 +15184,16 @@
         <v>74</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -15240,22 +15244,22 @@
         <v>74</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>74</v>
@@ -15266,10 +15270,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -15280,7 +15284,7 @@
         <v>75</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>74</v>
@@ -15289,16 +15293,16 @@
         <v>74</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -15349,22 +15353,22 @@
         <v>74</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>74</v>
@@ -15375,10 +15379,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -15389,7 +15393,7 @@
         <v>75</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>74</v>
@@ -15398,16 +15402,16 @@
         <v>74</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
@@ -15434,13 +15438,13 @@
         <v>74</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>74</v>
@@ -15458,22 +15462,22 @@
         <v>74</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>74</v>
@@ -15484,10 +15488,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -15507,16 +15511,16 @@
         <v>74</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -15567,7 +15571,7 @@
         <v>74</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>75</v>
@@ -15579,10 +15583,10 @@
         <v>74</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>74</v>
@@ -15593,10 +15597,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -15607,7 +15611,7 @@
         <v>75</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>74</v>
@@ -15616,16 +15620,16 @@
         <v>74</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -15676,22 +15680,22 @@
         <v>74</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>74</v>
@@ -15702,10 +15706,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -15716,7 +15720,7 @@
         <v>75</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>74</v>
@@ -15725,16 +15729,16 @@
         <v>74</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -15785,22 +15789,22 @@
         <v>74</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>74</v>
@@ -15811,10 +15815,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -15825,7 +15829,7 @@
         <v>75</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>74</v>
@@ -15834,16 +15838,16 @@
         <v>74</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -15894,22 +15898,22 @@
         <v>74</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>74</v>
@@ -15920,10 +15924,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -15934,7 +15938,7 @@
         <v>75</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>74</v>
@@ -15943,16 +15947,16 @@
         <v>74</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -16003,22 +16007,22 @@
         <v>74</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>74</v>
@@ -16029,10 +16033,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -16043,7 +16047,7 @@
         <v>75</v>
       </c>
       <c r="G127" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H127" t="s" s="2">
         <v>74</v>
@@ -16055,13 +16059,13 @@
         <v>74</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -16112,13 +16116,13 @@
         <v>74</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH127" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI127" t="s" s="2">
         <v>74</v>
@@ -16133,19 +16137,19 @@
         <v>74</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s" s="2">
@@ -16164,16 +16168,16 @@
         <v>74</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
@@ -16223,7 +16227,7 @@
         <v>74</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>75</v>
@@ -16235,7 +16239,7 @@
         <v>74</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>74</v>
@@ -16244,19 +16248,19 @@
         <v>74</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
@@ -16269,25 +16273,25 @@
         <v>74</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>74</v>
@@ -16336,7 +16340,7 @@
         <v>74</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>75</v>
@@ -16348,7 +16352,7 @@
         <v>74</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>74</v>
@@ -16357,15 +16361,15 @@
         <v>74</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -16376,7 +16380,7 @@
         <v>75</v>
       </c>
       <c r="G130" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H130" t="s" s="2">
         <v>74</v>
@@ -16385,16 +16389,16 @@
         <v>74</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -16421,13 +16425,13 @@
         <v>74</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="Z130" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>74</v>
@@ -16445,22 +16449,22 @@
         <v>74</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI130" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>74</v>
@@ -16471,10 +16475,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -16485,7 +16489,7 @@
         <v>75</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>74</v>
@@ -16494,16 +16498,16 @@
         <v>74</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -16530,13 +16534,13 @@
         <v>74</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="Z131" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AA131" t="s" s="2">
         <v>74</v>
@@ -16554,22 +16558,22 @@
         <v>74</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>74</v>
@@ -16580,10 +16584,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -16594,7 +16598,7 @@
         <v>75</v>
       </c>
       <c r="G132" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H132" t="s" s="2">
         <v>74</v>
@@ -16603,16 +16607,16 @@
         <v>74</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -16639,13 +16643,13 @@
         <v>74</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="Z132" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AA132" t="s" s="2">
         <v>74</v>
@@ -16663,22 +16667,22 @@
         <v>74</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>74</v>
@@ -16689,10 +16693,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -16703,7 +16707,7 @@
         <v>75</v>
       </c>
       <c r="G133" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H133" t="s" s="2">
         <v>74</v>
@@ -16712,16 +16716,16 @@
         <v>74</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -16748,13 +16752,13 @@
         <v>74</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="Z133" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AA133" t="s" s="2">
         <v>74</v>
@@ -16772,22 +16776,22 @@
         <v>74</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH133" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI133" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>74</v>
@@ -16798,10 +16802,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -16821,16 +16825,16 @@
         <v>74</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
@@ -16857,13 +16861,13 @@
         <v>74</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Z134" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AA134" t="s" s="2">
         <v>74</v>
@@ -16881,7 +16885,7 @@
         <v>74</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>75</v>
@@ -16893,10 +16897,10 @@
         <v>74</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>74</v>

--- a/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T20:22:01+00:00</t>
+    <t>2023-01-14T01:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-14T01:22:25+00:00</t>
+    <t>2023-01-15T00:37:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-15T00:37:24+00:00</t>
+    <t>2023-01-20T18:45:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-20T18:45:44+00:00</t>
+    <t>2023-01-21T15:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-21T15:50:48+00:00</t>
+    <t>2023-02-28T21:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4645" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4646" uniqueCount="601">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T21:05:48+00:00</t>
+    <t>2023-04-05T09:48:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-snapshot3</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -228,10 +228,10 @@
     <t>Constraint(s)</t>
   </si>
   <si>
-    <t>Mapping: IDMP Mapping</t>
-  </si>
-  <si>
     <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: IDMP Mapping (Substance)</t>
   </si>
   <si>
     <t>Mapping: RIM Mapping</t>
@@ -256,13 +256,13 @@
     <t>The detailed description of a substance, typically at a level beyond what is used for prescribing.</t>
   </si>
   <si>
+    <t>administrative.medication</t>
+  </si>
+  <si>
     <t>Substance (and derived classes: Chemical, Polymer, Protein, Nucleic_Acid, Structurally_Diverse)</t>
   </si>
   <si>
-    <t>administrative.medication</t>
-  </si>
-  <si>
-    <t>Entity. Role, or Act</t>
+    <t>Entity, Role, or Act</t>
   </si>
   <si>
     <t>SubstanceDefinition.id</t>
@@ -323,7 +323,7 @@
     <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
   </si>
   <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of its narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -345,13 +345,13 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>IETF language tag</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>required</t>
+  </si>
+  <si>
+    <t>IETF language tag for a human language</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/all-languages|5.0.0</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -380,6 +380,10 @@
     <t>DomainResource.text</t>
   </si>
   <si>
+    <t xml:space="preserve">dom-6
+</t>
+  </si>
+  <si>
     <t>Act.text?</t>
   </si>
   <si>
@@ -406,6 +410,10 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t>dom-2
+dom-4dom-3dom-5</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -423,7 +431,7 @@
     <t>Additional content defined by implementations</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
@@ -442,11 +450,11 @@
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/5.0.0-snapshot3/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R5/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -497,6 +505,9 @@
     <t>Status of substance within the catalogue e.g. active, retired.</t>
   </si>
   <si>
+    <t>preferred</t>
+  </si>
+  <si>
     <t>The lifecycle status of an artifact.</t>
   </si>
   <si>
@@ -650,10 +661,14 @@
     <t>Element.id</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>SubstanceDefinition.moiety.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -669,7 +684,7 @@
     <t>Extensions that cannot be ignored even if unrecognized</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -827,10 +842,10 @@
     <t>SubstanceDefinition.characterization.form</t>
   </si>
   <si>
-    <t>The specific chemical entity of the substance being characterized, to distinguish for example salt or base</t>
-  </si>
-  <si>
-    <t>The specific chemical entity of the substance being characterized, to distinguish for example salt or base.</t>
+    <t>Describes the nature of the chemical entity and explains, for instance, whether this is a base or a salt form</t>
+  </si>
+  <si>
+    <t>Describes the nature of the chemical entity and explains, for instance, whether this is a base or a salt form.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/substance-form</t>
@@ -839,10 +854,10 @@
     <t>SubstanceDefinition.characterization.description</t>
   </si>
   <si>
-    <t>Narrative text, data, tables about the characterization</t>
-  </si>
-  <si>
-    <t>Narrative text, data, tables about the characterization.</t>
+    <t>The description or justification in support of the interpretation of the data file</t>
+  </si>
+  <si>
+    <t>The description or justification in support of the interpretation of the data file.</t>
   </si>
   <si>
     <t>SubstanceDefinition.characterization.file</t>
@@ -852,10 +867,10 @@
 </t>
   </si>
   <si>
-    <t>An image or data file that characterizes this substance</t>
-  </si>
-  <si>
-    <t>An image or data file that characterizes this substance.</t>
+    <t>The data produced by the analytical instrument or a pictorial representation of that data. Examples: a JCAMP, JDX, or ADX file, or a chromatogram or spectrum analysis</t>
+  </si>
+  <si>
+    <t>The data produced by the analytical instrument or a pictorial representation of that data. Examples: a JCAMP, JDX, or ADX file, or a chromatogram or spectrum analysis.</t>
   </si>
   <si>
     <t>SubstanceDefinition.property</t>
@@ -1049,10 +1064,10 @@
     <t>If there is no comparator, then there is no modification of the value</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|5.0.0-snapshot3</t>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|5.0.0</t>
   </si>
   <si>
     <t>Quantity.comparator</t>
@@ -1842,7 +1857,7 @@
     <t>The country or countries where the material is harvested.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/country|5.0.0-snapshot3</t>
+    <t>http://hl7.org/fhir/ValueSet/country|5.0.0</t>
   </si>
   <si>
     <t>Source_Material.Country_Of_Origin</t>
@@ -2192,8 +2207,8 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="125.703125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="125.703125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="68.94921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2963,7 +2978,7 @@
         <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>96</v>
@@ -2975,19 +2990,19 @@
         <v>74</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3006,16 +3021,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3065,7 +3080,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -3074,7 +3089,7 @@
         <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>74</v>
@@ -3086,19 +3101,19 @@
         <v>74</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3117,16 +3132,16 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3176,7 +3191,7 @@
         <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -3188,7 +3203,7 @@
         <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>74</v>
@@ -3197,19 +3212,19 @@
         <v>74</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3228,19 +3243,19 @@
         <v>85</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -3289,7 +3304,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -3301,7 +3316,7 @@
         <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>74</v>
@@ -3310,15 +3325,15 @@
         <v>74</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3341,13 +3356,13 @@
         <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3398,7 +3413,7 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -3413,10 +3428,10 @@
         <v>96</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>74</v>
@@ -3424,10 +3439,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3450,13 +3465,13 @@
         <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3507,7 +3522,7 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -3522,10 +3537,10 @@
         <v>96</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>74</v>
@@ -3533,10 +3548,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3559,13 +3574,13 @@
         <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3592,13 +3607,13 @@
         <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>74</v>
@@ -3616,7 +3631,7 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -3631,10 +3646,10 @@
         <v>96</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>74</v>
@@ -3642,10 +3657,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3668,13 +3683,13 @@
         <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3725,7 +3740,7 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3740,10 +3755,10 @@
         <v>96</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>74</v>
@@ -3751,10 +3766,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3777,13 +3792,13 @@
         <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3810,29 +3825,29 @@
         <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3847,10 +3862,10 @@
         <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>74</v>
@@ -3858,10 +3873,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3884,13 +3899,13 @@
         <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3917,31 +3932,31 @@
         <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -3956,10 +3971,10 @@
         <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>74</v>
@@ -3967,10 +3982,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3993,13 +4008,13 @@
         <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4050,7 +4065,7 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -4065,10 +4080,10 @@
         <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>177</v>
+        <v>74</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>74</v>
@@ -4076,10 +4091,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4102,13 +4117,13 @@
         <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4159,7 +4174,7 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -4174,10 +4189,10 @@
         <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>74</v>
@@ -4185,10 +4200,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4211,13 +4226,13 @@
         <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4268,7 +4283,7 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -4283,10 +4298,10 @@
         <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>74</v>
@@ -4294,10 +4309,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4320,13 +4335,13 @@
         <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4377,7 +4392,7 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -4392,10 +4407,10 @@
         <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>74</v>
@@ -4403,10 +4418,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4429,13 +4444,13 @@
         <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4486,7 +4501,7 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -4501,10 +4516,10 @@
         <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>74</v>
@@ -4512,10 +4527,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4538,13 +4553,13 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4595,7 +4610,7 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -4610,10 +4625,10 @@
         <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>199</v>
+        <v>74</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>74</v>
@@ -4621,10 +4636,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4647,13 +4662,13 @@
         <v>74</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4704,7 +4719,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -4713,7 +4728,7 @@
         <v>84</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>74</v>
@@ -4725,19 +4740,19 @@
         <v>74</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4756,16 +4771,16 @@
         <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4815,7 +4830,7 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4827,7 +4842,7 @@
         <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>74</v>
@@ -4836,19 +4851,19 @@
         <v>74</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4867,19 +4882,19 @@
         <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>74</v>
@@ -4928,7 +4943,7 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4940,7 +4955,7 @@
         <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>74</v>
@@ -4949,15 +4964,15 @@
         <v>74</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4980,13 +4995,13 @@
         <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5037,7 +5052,7 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -5052,10 +5067,10 @@
         <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>74</v>
+        <v>219</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>74</v>
@@ -5063,10 +5078,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5089,13 +5104,13 @@
         <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5146,7 +5161,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -5161,10 +5176,10 @@
         <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>219</v>
+        <v>74</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>74</v>
+        <v>223</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>74</v>
@@ -5172,10 +5187,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5198,13 +5213,13 @@
         <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5255,7 +5270,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -5270,10 +5285,10 @@
         <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>74</v>
+        <v>227</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>74</v>
@@ -5281,10 +5296,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5307,13 +5322,13 @@
         <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5340,31 +5355,31 @@
         <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Z29" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -5379,10 +5394,10 @@
         <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>229</v>
+        <v>74</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>74</v>
@@ -5390,10 +5405,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5416,13 +5431,13 @@
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5449,13 +5464,13 @@
         <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>74</v>
@@ -5473,7 +5488,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5488,10 +5503,10 @@
         <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>234</v>
+        <v>74</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>74</v>
+        <v>238</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>74</v>
@@ -5499,10 +5514,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5525,13 +5540,13 @@
         <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5582,7 +5597,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5597,10 +5612,10 @@
         <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>238</v>
+        <v>74</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>74</v>
+        <v>242</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>74</v>
@@ -5608,10 +5623,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5634,13 +5649,13 @@
         <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5691,7 +5706,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5706,10 +5721,10 @@
         <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>243</v>
+        <v>74</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>74</v>
@@ -5717,10 +5732,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5743,13 +5758,13 @@
         <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5776,31 +5791,31 @@
         <v>74</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Z33" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5815,10 +5830,10 @@
         <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>249</v>
+        <v>74</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>74</v>
+        <v>253</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>74</v>
@@ -5826,10 +5841,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5852,13 +5867,13 @@
         <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5909,7 +5924,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5924,10 +5939,10 @@
         <v>96</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>74</v>
@@ -5935,10 +5950,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5961,13 +5976,13 @@
         <v>74</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6018,7 +6033,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -6027,7 +6042,7 @@
         <v>84</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>74</v>
@@ -6039,19 +6054,19 @@
         <v>74</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6070,16 +6085,16 @@
         <v>74</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6129,7 +6144,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -6141,7 +6156,7 @@
         <v>74</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>74</v>
@@ -6150,19 +6165,19 @@
         <v>74</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6181,19 +6196,19 @@
         <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>74</v>
@@ -6242,7 +6257,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -6254,7 +6269,7 @@
         <v>74</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>74</v>
@@ -6263,15 +6278,15 @@
         <v>74</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6294,13 +6309,13 @@
         <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6327,31 +6342,31 @@
         <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Z38" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -6366,10 +6381,10 @@
         <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>74</v>
@@ -6377,10 +6392,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6403,13 +6418,13 @@
         <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6436,11 +6451,11 @@
         <v>74</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>74</v>
@@ -6458,7 +6473,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6473,10 +6488,10 @@
         <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>74</v>
@@ -6484,10 +6499,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6510,13 +6525,13 @@
         <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6567,7 +6582,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6582,10 +6597,10 @@
         <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>74</v>
@@ -6593,10 +6608,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6619,13 +6634,13 @@
         <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6676,7 +6691,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6691,10 +6706,10 @@
         <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>74</v>
@@ -6702,10 +6717,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6728,13 +6743,13 @@
         <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6785,7 +6800,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6800,10 +6815,10 @@
         <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>273</v>
+        <v>74</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>74</v>
+        <v>277</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>74</v>
@@ -6811,10 +6826,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6837,13 +6852,13 @@
         <v>74</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6894,7 +6909,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6903,7 +6918,7 @@
         <v>84</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>74</v>
@@ -6915,19 +6930,19 @@
         <v>74</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6946,16 +6961,16 @@
         <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7005,7 +7020,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -7017,7 +7032,7 @@
         <v>74</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>74</v>
@@ -7026,19 +7041,19 @@
         <v>74</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7057,19 +7072,19 @@
         <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>74</v>
@@ -7118,7 +7133,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -7130,7 +7145,7 @@
         <v>74</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>74</v>
@@ -7139,15 +7154,15 @@
         <v>74</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7170,13 +7185,13 @@
         <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7203,31 +7218,31 @@
         <v>74</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Z46" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF46" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>84</v>
@@ -7242,10 +7257,10 @@
         <v>96</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>282</v>
+        <v>74</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>74</v>
+        <v>286</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>74</v>
@@ -7253,10 +7268,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7279,13 +7294,13 @@
         <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7336,7 +7351,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -7351,10 +7366,10 @@
         <v>96</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>287</v>
+        <v>74</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>74</v>
+        <v>291</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>74</v>
@@ -7362,10 +7377,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7388,13 +7403,13 @@
         <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7445,7 +7460,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7460,10 +7475,10 @@
         <v>96</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>292</v>
+        <v>74</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>74</v>
+        <v>296</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>74</v>
@@ -7471,10 +7486,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7497,13 +7512,13 @@
         <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7554,7 +7569,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7580,10 +7595,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7606,13 +7621,13 @@
         <v>74</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7663,7 +7678,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7672,7 +7687,7 @@
         <v>84</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>74</v>
@@ -7684,19 +7699,19 @@
         <v>74</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7715,16 +7730,16 @@
         <v>74</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7774,7 +7789,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7786,7 +7801,7 @@
         <v>74</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>74</v>
@@ -7795,19 +7810,19 @@
         <v>74</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7826,19 +7841,19 @@
         <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>74</v>
@@ -7887,7 +7902,7 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -7899,7 +7914,7 @@
         <v>74</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>74</v>
@@ -7908,15 +7923,15 @@
         <v>74</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7939,13 +7954,13 @@
         <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7972,31 +7987,31 @@
         <v>74</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Z53" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF53" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -8011,10 +8026,10 @@
         <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>304</v>
+        <v>74</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>74</v>
+        <v>308</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>74</v>
@@ -8022,10 +8037,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8048,13 +8063,13 @@
         <v>85</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8081,31 +8096,31 @@
         <v>74</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Z54" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF54" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -8120,10 +8135,10 @@
         <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>310</v>
+        <v>74</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>74</v>
+        <v>314</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>74</v>
@@ -8131,10 +8146,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8157,13 +8172,13 @@
         <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8214,7 +8229,7 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>84</v>
@@ -8229,10 +8244,10 @@
         <v>96</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>315</v>
+        <v>74</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>74</v>
+        <v>319</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>74</v>
@@ -8240,10 +8255,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8269,10 +8284,10 @@
         <v>86</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8323,7 +8338,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -8332,7 +8347,7 @@
         <v>84</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>74</v>
@@ -8344,19 +8359,19 @@
         <v>74</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8375,16 +8390,16 @@
         <v>74</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8422,19 +8437,19 @@
         <v>74</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -8446,7 +8461,7 @@
         <v>74</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>74</v>
@@ -8455,15 +8470,15 @@
         <v>74</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8486,19 +8501,19 @@
         <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>74</v>
@@ -8547,7 +8562,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8568,15 +8583,15 @@
         <v>74</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8602,20 +8617,20 @@
         <v>104</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q59" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>74</v>
@@ -8636,11 +8651,13 @@
         <v>74</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="Y59" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="Z59" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>74</v>
@@ -8658,7 +8675,7 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8679,15 +8696,15 @@
         <v>74</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8710,17 +8727,17 @@
         <v>85</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>74</v>
@@ -8769,7 +8786,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8790,15 +8807,15 @@
         <v>74</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8824,14 +8841,14 @@
         <v>98</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>74</v>
@@ -8880,7 +8897,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -8889,7 +8906,7 @@
         <v>84</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>96</v>
@@ -8901,15 +8918,15 @@
         <v>74</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8935,16 +8952,16 @@
         <v>104</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>74</v>
@@ -8993,7 +9010,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -9002,7 +9019,7 @@
         <v>84</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>74</v>
+        <v>353</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>96</v>
@@ -9014,15 +9031,15 @@
         <v>74</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9045,13 +9062,13 @@
         <v>85</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9102,7 +9119,7 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -9117,10 +9134,10 @@
         <v>96</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>361</v>
+        <v>74</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>74</v>
+        <v>365</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>74</v>
@@ -9128,10 +9145,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9154,13 +9171,13 @@
         <v>74</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9211,7 +9228,7 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -9220,7 +9237,7 @@
         <v>84</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>74</v>
@@ -9232,19 +9249,19 @@
         <v>74</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9263,16 +9280,16 @@
         <v>74</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9322,7 +9339,7 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -9334,7 +9351,7 @@
         <v>74</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>74</v>
@@ -9343,19 +9360,19 @@
         <v>74</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9374,19 +9391,19 @@
         <v>85</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>74</v>
@@ -9435,7 +9452,7 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -9447,7 +9464,7 @@
         <v>74</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>74</v>
@@ -9456,15 +9473,15 @@
         <v>74</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9487,13 +9504,13 @@
         <v>85</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9520,13 +9537,13 @@
         <v>74</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>74</v>
@@ -9544,7 +9561,7 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -9559,10 +9576,10 @@
         <v>96</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>366</v>
+        <v>74</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>74</v>
+        <v>370</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>74</v>
@@ -9570,10 +9587,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9596,13 +9613,13 @@
         <v>85</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9629,13 +9646,13 @@
         <v>74</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>74</v>
@@ -9653,7 +9670,7 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -9668,10 +9685,10 @@
         <v>96</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>368</v>
+        <v>74</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>74</v>
+        <v>372</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>74</v>
@@ -9679,10 +9696,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9705,13 +9722,13 @@
         <v>85</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9762,7 +9779,7 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -9777,10 +9794,10 @@
         <v>96</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>372</v>
+        <v>74</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>74</v>
+        <v>376</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>74</v>
@@ -9788,10 +9805,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9814,13 +9831,13 @@
         <v>85</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9871,7 +9888,7 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -9886,10 +9903,10 @@
         <v>96</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>376</v>
+        <v>74</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>74</v>
+        <v>380</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>74</v>
@@ -9897,10 +9914,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9926,10 +9943,10 @@
         <v>77</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9980,7 +9997,7 @@
         <v>74</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
@@ -9995,10 +10012,10 @@
         <v>96</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>380</v>
+        <v>74</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>74</v>
+        <v>384</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>74</v>
@@ -10006,10 +10023,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10032,13 +10049,13 @@
         <v>85</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10065,13 +10082,13 @@
         <v>74</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>74</v>
@@ -10089,7 +10106,7 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
@@ -10104,10 +10121,10 @@
         <v>96</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>74</v>
@@ -10115,10 +10132,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10141,13 +10158,13 @@
         <v>85</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10198,7 +10215,7 @@
         <v>74</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
@@ -10213,10 +10230,10 @@
         <v>96</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>389</v>
+        <v>74</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>74</v>
+        <v>393</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>74</v>
@@ -10224,10 +10241,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10250,13 +10267,13 @@
         <v>85</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10307,7 +10324,7 @@
         <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
@@ -10322,10 +10339,10 @@
         <v>96</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>393</v>
+        <v>74</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>74</v>
+        <v>397</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>74</v>
@@ -10333,10 +10350,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10359,13 +10376,13 @@
         <v>74</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10416,7 +10433,7 @@
         <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
@@ -10425,7 +10442,7 @@
         <v>84</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>74</v>
@@ -10437,19 +10454,19 @@
         <v>74</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10468,16 +10485,16 @@
         <v>74</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10527,7 +10544,7 @@
         <v>74</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
@@ -10539,7 +10556,7 @@
         <v>74</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>74</v>
@@ -10548,19 +10565,19 @@
         <v>74</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -10579,19 +10596,19 @@
         <v>85</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>74</v>
@@ -10640,7 +10657,7 @@
         <v>74</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>75</v>
@@ -10652,7 +10669,7 @@
         <v>74</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>74</v>
@@ -10661,15 +10678,15 @@
         <v>74</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10692,13 +10709,13 @@
         <v>85</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10725,31 +10742,31 @@
         <v>74</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Z78" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF78" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
@@ -10764,10 +10781,10 @@
         <v>96</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>402</v>
+        <v>74</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>74</v>
+        <v>406</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>74</v>
@@ -10775,10 +10792,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10801,13 +10818,13 @@
         <v>85</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10858,7 +10875,7 @@
         <v>74</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>75</v>
@@ -10873,10 +10890,10 @@
         <v>96</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>406</v>
+        <v>74</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>74</v>
+        <v>410</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>74</v>
@@ -10884,10 +10901,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10910,13 +10927,13 @@
         <v>85</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10943,13 +10960,13 @@
         <v>74</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>74</v>
@@ -10967,7 +10984,7 @@
         <v>74</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>75</v>
@@ -10982,10 +10999,10 @@
         <v>96</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>74</v>
@@ -10993,10 +11010,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11019,13 +11036,13 @@
         <v>85</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11076,7 +11093,7 @@
         <v>74</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>75</v>
@@ -11091,10 +11108,10 @@
         <v>96</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>414</v>
+        <v>74</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>74</v>
+        <v>418</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>74</v>
@@ -11102,10 +11119,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11128,13 +11145,13 @@
         <v>85</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11185,7 +11202,7 @@
         <v>74</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>75</v>
@@ -11200,10 +11217,10 @@
         <v>96</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>417</v>
+        <v>74</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>74</v>
+        <v>421</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>74</v>
@@ -11211,10 +11228,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11237,13 +11254,13 @@
         <v>74</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11294,7 +11311,7 @@
         <v>74</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>75</v>
@@ -11303,7 +11320,7 @@
         <v>84</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>74</v>
@@ -11315,19 +11332,19 @@
         <v>74</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -11346,16 +11363,16 @@
         <v>74</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11405,7 +11422,7 @@
         <v>74</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>75</v>
@@ -11417,7 +11434,7 @@
         <v>74</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>74</v>
@@ -11426,19 +11443,19 @@
         <v>74</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -11457,19 +11474,19 @@
         <v>85</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>74</v>
@@ -11518,7 +11535,7 @@
         <v>74</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>75</v>
@@ -11530,7 +11547,7 @@
         <v>74</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>74</v>
@@ -11539,15 +11556,15 @@
         <v>74</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11570,13 +11587,13 @@
         <v>85</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11603,11 +11620,11 @@
         <v>74</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="Y86" s="2"/>
       <c r="Z86" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>74</v>
@@ -11625,7 +11642,7 @@
         <v>74</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>75</v>
@@ -11640,10 +11657,10 @@
         <v>96</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>425</v>
+        <v>74</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>74</v>
+        <v>429</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>74</v>
@@ -11651,10 +11668,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11677,13 +11694,13 @@
         <v>85</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11710,13 +11727,13 @@
         <v>74</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>74</v>
@@ -11734,7 +11751,7 @@
         <v>74</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>75</v>
@@ -11749,10 +11766,10 @@
         <v>96</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>429</v>
+        <v>74</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>74</v>
+        <v>433</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>74</v>
@@ -11760,10 +11777,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11786,13 +11803,13 @@
         <v>85</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11843,7 +11860,7 @@
         <v>74</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>75</v>
@@ -11858,10 +11875,10 @@
         <v>96</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>434</v>
+        <v>74</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>74</v>
+        <v>438</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>74</v>
@@ -11869,10 +11886,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11895,13 +11912,13 @@
         <v>85</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -11952,7 +11969,7 @@
         <v>74</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>75</v>
@@ -11967,10 +11984,10 @@
         <v>96</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>438</v>
+        <v>74</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>74</v>
+        <v>442</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>74</v>
@@ -11978,10 +11995,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12004,13 +12021,13 @@
         <v>85</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12061,7 +12078,7 @@
         <v>74</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>75</v>
@@ -12076,10 +12093,10 @@
         <v>96</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>440</v>
+        <v>74</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>74</v>
+        <v>444</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>74</v>
@@ -12087,10 +12104,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12113,13 +12130,13 @@
         <v>85</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12170,7 +12187,7 @@
         <v>74</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>75</v>
@@ -12185,10 +12202,10 @@
         <v>96</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>443</v>
+        <v>74</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>74</v>
+        <v>447</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>74</v>
@@ -12196,10 +12213,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12222,13 +12239,13 @@
         <v>74</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12279,7 +12296,7 @@
         <v>74</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>75</v>
@@ -12288,7 +12305,7 @@
         <v>84</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>74</v>
@@ -12300,19 +12317,19 @@
         <v>74</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -12331,16 +12348,16 @@
         <v>74</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -12390,7 +12407,7 @@
         <v>74</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>75</v>
@@ -12402,7 +12419,7 @@
         <v>74</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>74</v>
@@ -12411,19 +12428,19 @@
         <v>74</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -12442,19 +12459,19 @@
         <v>85</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>74</v>
@@ -12503,7 +12520,7 @@
         <v>74</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>75</v>
@@ -12515,7 +12532,7 @@
         <v>74</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>74</v>
@@ -12524,15 +12541,15 @@
         <v>74</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12555,13 +12572,13 @@
         <v>85</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -12612,7 +12629,7 @@
         <v>74</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>84</v>
@@ -12627,10 +12644,10 @@
         <v>96</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>450</v>
+        <v>74</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>74</v>
+        <v>454</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>74</v>
@@ -12638,10 +12655,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12664,13 +12681,13 @@
         <v>85</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -12697,31 +12714,31 @@
         <v>74</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Z96" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF96" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>75</v>
@@ -12736,10 +12753,10 @@
         <v>96</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>456</v>
+        <v>74</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>74</v>
+        <v>460</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>74</v>
@@ -12747,10 +12764,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12773,13 +12790,13 @@
         <v>85</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -12806,13 +12823,13 @@
         <v>74</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>74</v>
@@ -12830,7 +12847,7 @@
         <v>74</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>75</v>
@@ -12845,10 +12862,10 @@
         <v>96</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>74</v>
@@ -12856,10 +12873,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12882,13 +12899,13 @@
         <v>85</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -12896,52 +12913,52 @@
         <v>74</v>
       </c>
       <c r="Q98" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF98" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>75</v>
@@ -12956,10 +12973,10 @@
         <v>96</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>74</v>
@@ -12967,10 +12984,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12993,13 +13010,13 @@
         <v>85</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13050,7 +13067,7 @@
         <v>74</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>75</v>
@@ -13065,10 +13082,10 @@
         <v>96</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>468</v>
+        <v>74</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>74</v>
+        <v>472</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>74</v>
@@ -13076,10 +13093,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13102,13 +13119,13 @@
         <v>85</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13135,31 +13152,31 @@
         <v>74</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="Z100" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF100" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>75</v>
@@ -13174,10 +13191,10 @@
         <v>96</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>474</v>
+        <v>74</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>74</v>
+        <v>478</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>74</v>
@@ -13185,10 +13202,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13211,13 +13228,13 @@
         <v>85</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13244,31 +13261,31 @@
         <v>74</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="Z101" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF101" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>75</v>
@@ -13283,10 +13300,10 @@
         <v>96</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>480</v>
+        <v>74</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>74</v>
+        <v>484</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>74</v>
@@ -13294,10 +13311,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13323,10 +13340,10 @@
         <v>77</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -13377,7 +13394,7 @@
         <v>74</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>75</v>
@@ -13392,10 +13409,10 @@
         <v>96</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>74</v>
@@ -13403,10 +13420,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13432,10 +13449,10 @@
         <v>77</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -13486,7 +13503,7 @@
         <v>74</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>75</v>
@@ -13501,10 +13518,10 @@
         <v>96</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>74</v>
@@ -13512,10 +13529,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13538,13 +13555,13 @@
         <v>85</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13595,7 +13612,7 @@
         <v>74</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>75</v>
@@ -13610,10 +13627,10 @@
         <v>96</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>490</v>
+        <v>74</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>74</v>
+        <v>494</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>74</v>
@@ -13621,10 +13638,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13647,13 +13664,13 @@
         <v>74</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -13704,7 +13721,7 @@
         <v>74</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>75</v>
@@ -13713,7 +13730,7 @@
         <v>84</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>74</v>
@@ -13725,19 +13742,19 @@
         <v>74</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -13756,16 +13773,16 @@
         <v>74</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -13815,7 +13832,7 @@
         <v>74</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>75</v>
@@ -13827,7 +13844,7 @@
         <v>74</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>74</v>
@@ -13836,19 +13853,19 @@
         <v>74</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -13867,19 +13884,19 @@
         <v>85</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>74</v>
@@ -13928,7 +13945,7 @@
         <v>74</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>75</v>
@@ -13940,7 +13957,7 @@
         <v>74</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>74</v>
@@ -13949,15 +13966,15 @@
         <v>74</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13980,13 +13997,13 @@
         <v>85</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -14013,31 +14030,31 @@
         <v>74</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="Z108" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF108" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>75</v>
@@ -14052,10 +14069,10 @@
         <v>96</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>499</v>
+        <v>74</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>74</v>
+        <v>503</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>74</v>
@@ -14063,10 +14080,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14089,13 +14106,13 @@
         <v>85</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -14122,13 +14139,13 @@
         <v>74</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>74</v>
@@ -14146,7 +14163,7 @@
         <v>74</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>75</v>
@@ -14161,10 +14178,10 @@
         <v>96</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>503</v>
+        <v>74</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>74</v>
+        <v>507</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>74</v>
@@ -14172,10 +14189,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14198,13 +14215,13 @@
         <v>85</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -14255,7 +14272,7 @@
         <v>74</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>75</v>
@@ -14270,10 +14287,10 @@
         <v>96</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>507</v>
+        <v>74</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>74</v>
+        <v>511</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>74</v>
@@ -14281,10 +14298,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14307,13 +14324,13 @@
         <v>85</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -14364,7 +14381,7 @@
         <v>74</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>75</v>
@@ -14379,10 +14396,10 @@
         <v>96</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>509</v>
+        <v>74</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>74</v>
+        <v>513</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>74</v>
@@ -14390,10 +14407,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14416,13 +14433,13 @@
         <v>85</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -14473,7 +14490,7 @@
         <v>74</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>75</v>
@@ -14488,10 +14505,10 @@
         <v>96</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>513</v>
+        <v>74</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>74</v>
+        <v>517</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>74</v>
@@ -14499,10 +14516,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -14525,13 +14542,13 @@
         <v>74</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -14582,7 +14599,7 @@
         <v>74</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>75</v>
@@ -14591,7 +14608,7 @@
         <v>84</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>74</v>
@@ -14603,19 +14620,19 @@
         <v>74</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
@@ -14634,16 +14651,16 @@
         <v>74</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -14693,7 +14710,7 @@
         <v>74</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>75</v>
@@ -14705,7 +14722,7 @@
         <v>74</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>74</v>
@@ -14714,19 +14731,19 @@
         <v>74</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -14745,19 +14762,19 @@
         <v>85</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>74</v>
@@ -14806,7 +14823,7 @@
         <v>74</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>75</v>
@@ -14818,7 +14835,7 @@
         <v>74</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>74</v>
@@ -14827,15 +14844,15 @@
         <v>74</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -14858,13 +14875,13 @@
         <v>85</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -14915,7 +14932,7 @@
         <v>74</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>75</v>
@@ -14930,10 +14947,10 @@
         <v>96</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>521</v>
+        <v>74</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>74</v>
+        <v>525</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>74</v>
@@ -14941,10 +14958,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14967,13 +14984,13 @@
         <v>85</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -15000,13 +15017,13 @@
         <v>74</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>74</v>
@@ -15024,7 +15041,7 @@
         <v>74</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>84</v>
@@ -15039,10 +15056,10 @@
         <v>96</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>526</v>
+        <v>74</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>74</v>
+        <v>530</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>74</v>
@@ -15050,10 +15067,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -15076,13 +15093,13 @@
         <v>85</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -15090,7 +15107,7 @@
         <v>74</v>
       </c>
       <c r="Q118" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="R118" t="s" s="2">
         <v>74</v>
@@ -15135,7 +15152,7 @@
         <v>74</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>75</v>
@@ -15150,10 +15167,10 @@
         <v>96</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>531</v>
+        <v>74</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>74</v>
+        <v>535</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>74</v>
@@ -15161,10 +15178,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -15187,13 +15204,13 @@
         <v>85</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -15244,7 +15261,7 @@
         <v>74</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>75</v>
@@ -15259,10 +15276,10 @@
         <v>96</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>536</v>
+        <v>74</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>74</v>
+        <v>540</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>74</v>
@@ -15270,10 +15287,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -15296,13 +15313,13 @@
         <v>85</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -15353,7 +15370,7 @@
         <v>74</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>75</v>
@@ -15368,10 +15385,10 @@
         <v>96</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>541</v>
+        <v>74</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>74</v>
+        <v>545</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>74</v>
@@ -15379,10 +15396,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -15405,13 +15422,13 @@
         <v>85</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
@@ -15438,13 +15455,13 @@
         <v>74</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>74</v>
@@ -15462,7 +15479,7 @@
         <v>74</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>75</v>
@@ -15477,10 +15494,10 @@
         <v>96</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>545</v>
+        <v>74</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>74</v>
+        <v>549</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>74</v>
@@ -15488,10 +15505,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -15514,13 +15531,13 @@
         <v>85</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -15571,7 +15588,7 @@
         <v>74</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>75</v>
@@ -15586,10 +15603,10 @@
         <v>96</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>547</v>
+        <v>74</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>74</v>
+        <v>551</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>74</v>
@@ -15597,10 +15614,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -15623,13 +15640,13 @@
         <v>85</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -15680,7 +15697,7 @@
         <v>74</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>75</v>
@@ -15695,10 +15712,10 @@
         <v>96</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>552</v>
+        <v>74</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>74</v>
+        <v>556</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>74</v>
@@ -15706,10 +15723,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -15732,13 +15749,13 @@
         <v>85</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -15789,7 +15806,7 @@
         <v>74</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>75</v>
@@ -15804,10 +15821,10 @@
         <v>96</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>557</v>
+        <v>74</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>74</v>
+        <v>561</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>74</v>
@@ -15815,10 +15832,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -15841,13 +15858,13 @@
         <v>85</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -15898,7 +15915,7 @@
         <v>74</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>75</v>
@@ -15913,10 +15930,10 @@
         <v>96</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>562</v>
+        <v>74</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>74</v>
+        <v>566</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>74</v>
@@ -15924,10 +15941,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -15950,13 +15967,13 @@
         <v>85</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -16007,7 +16024,7 @@
         <v>74</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>75</v>
@@ -16022,10 +16039,10 @@
         <v>96</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>566</v>
+        <v>74</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>74</v>
+        <v>570</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>74</v>
@@ -16033,10 +16050,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -16059,13 +16076,13 @@
         <v>74</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -16116,7 +16133,7 @@
         <v>74</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>75</v>
@@ -16125,7 +16142,7 @@
         <v>84</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>74</v>
@@ -16137,19 +16154,19 @@
         <v>74</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s" s="2">
@@ -16168,16 +16185,16 @@
         <v>74</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
@@ -16227,7 +16244,7 @@
         <v>74</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>75</v>
@@ -16239,7 +16256,7 @@
         <v>74</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>74</v>
@@ -16248,19 +16265,19 @@
         <v>74</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
@@ -16279,19 +16296,19 @@
         <v>85</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>74</v>
@@ -16340,7 +16357,7 @@
         <v>74</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>75</v>
@@ -16352,7 +16369,7 @@
         <v>74</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>74</v>
@@ -16361,15 +16378,15 @@
         <v>74</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -16392,13 +16409,13 @@
         <v>85</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -16425,31 +16442,31 @@
         <v>74</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="Z130" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AA130" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC130" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD130" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE130" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF130" t="s" s="2">
         <v>574</v>
-      </c>
-      <c r="AA130" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB130" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC130" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD130" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE130" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF130" t="s" s="2">
-        <v>570</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>75</v>
@@ -16464,10 +16481,10 @@
         <v>96</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>575</v>
+        <v>74</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>74</v>
+        <v>579</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>74</v>
@@ -16475,10 +16492,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -16501,13 +16518,13 @@
         <v>85</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -16534,13 +16551,13 @@
         <v>74</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="Z131" t="s" s="2">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="AA131" t="s" s="2">
         <v>74</v>
@@ -16558,7 +16575,7 @@
         <v>74</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>75</v>
@@ -16573,10 +16590,10 @@
         <v>96</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>580</v>
+        <v>74</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>74</v>
+        <v>584</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>74</v>
@@ -16584,10 +16601,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -16610,13 +16627,13 @@
         <v>85</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -16643,31 +16660,31 @@
         <v>74</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="Z132" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AA132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF132" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="AA132" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB132" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC132" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD132" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE132" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF132" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>75</v>
@@ -16682,10 +16699,10 @@
         <v>96</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>586</v>
+        <v>74</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>74</v>
+        <v>590</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>74</v>
@@ -16693,10 +16710,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -16719,13 +16736,13 @@
         <v>85</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -16752,13 +16769,13 @@
         <v>74</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="Z133" t="s" s="2">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="AA133" t="s" s="2">
         <v>74</v>
@@ -16776,7 +16793,7 @@
         <v>74</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>75</v>
@@ -16791,10 +16808,10 @@
         <v>96</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>591</v>
+        <v>74</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>74</v>
+        <v>595</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>74</v>
@@ -16802,10 +16819,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -16828,13 +16845,13 @@
         <v>85</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
@@ -16861,13 +16878,13 @@
         <v>74</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>334</v>
+        <v>108</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="Z134" t="s" s="2">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="AA134" t="s" s="2">
         <v>74</v>
@@ -16885,7 +16902,7 @@
         <v>74</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>75</v>
@@ -16900,10 +16917,10 @@
         <v>96</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>596</v>
+        <v>74</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>74</v>
+        <v>600</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>74</v>

--- a/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T09:48:34+00:00</t>
+    <t>2023-04-05T12:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T12:01:25+00:00</t>
+    <t>2023-04-05T12:06:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T12:06:03+00:00</t>
+    <t>2023-04-05T13:49:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
